--- a/metadata/excel/projects/micans_v6_exp1_plexed/metadata_plexed.xlsx
+++ b/metadata/excel/projects/micans_v6_exp1_plexed/metadata_plexed.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="309">
   <si>
     <t>Country</t>
   </si>
@@ -1039,6 +1039,12 @@
   </si>
   <si>
     <t>Header rev. comp.</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>micans</t>
   </si>
 </sst>
 </file>
@@ -2366,12 +2372,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CB69"/>
+  <dimension ref="A1:CC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2381,80 +2387,81 @@
     <col min="3" max="3" width="25.1640625" style="34" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.5" style="14" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="23" style="39" customWidth="1"/>
-    <col min="10" max="10" width="31.1640625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="39" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="34" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" style="58" customWidth="1"/>
-    <col min="18" max="18" width="14" style="61" customWidth="1"/>
-    <col min="19" max="20" width="16.83203125" customWidth="1"/>
-    <col min="21" max="21" width="11.5" customWidth="1"/>
-    <col min="22" max="22" width="43.6640625" style="20" customWidth="1"/>
-    <col min="23" max="23" width="44.33203125" style="20" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" customWidth="1"/>
-    <col min="25" max="25" width="25.5" style="49" customWidth="1"/>
-    <col min="26" max="26" width="20.1640625" style="20" customWidth="1"/>
-    <col min="27" max="27" width="22" style="23" customWidth="1"/>
-    <col min="28" max="28" width="17.83203125" style="49" customWidth="1"/>
-    <col min="29" max="29" width="21.5" style="20" customWidth="1"/>
-    <col min="30" max="30" width="27.6640625" style="24" customWidth="1"/>
-    <col min="31" max="31" width="9.83203125" customWidth="1"/>
-    <col min="32" max="32" width="11" customWidth="1"/>
-    <col min="33" max="33" width="13.5" style="3" customWidth="1"/>
-    <col min="34" max="34" width="9.1640625" customWidth="1"/>
-    <col min="35" max="35" width="14.33203125" style="3" customWidth="1"/>
-    <col min="36" max="36" width="15.83203125" style="3" customWidth="1"/>
-    <col min="37" max="37" width="8.5" customWidth="1"/>
-    <col min="38" max="38" width="10.33203125" style="18" customWidth="1"/>
-    <col min="39" max="39" width="10.33203125" customWidth="1"/>
-    <col min="40" max="40" width="11.5" customWidth="1"/>
-    <col min="41" max="41" width="19.6640625" customWidth="1"/>
-    <col min="42" max="42" width="12.83203125" style="62" customWidth="1"/>
-    <col min="43" max="43" width="32.83203125" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13" style="62" customWidth="1"/>
-    <col min="45" max="45" width="35.6640625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.1640625" customWidth="1"/>
-    <col min="47" max="47" width="12.5" customWidth="1"/>
-    <col min="48" max="48" width="15" customWidth="1"/>
-    <col min="49" max="49" width="10.83203125" customWidth="1"/>
-    <col min="50" max="50" width="14" customWidth="1"/>
-    <col min="51" max="51" width="13.1640625" customWidth="1"/>
-    <col min="52" max="52" width="15.6640625" customWidth="1"/>
-    <col min="53" max="53" width="11.6640625" customWidth="1"/>
-    <col min="54" max="54" width="12.1640625" customWidth="1"/>
-    <col min="55" max="55" width="13" customWidth="1"/>
-    <col min="56" max="56" width="10.1640625" customWidth="1"/>
-    <col min="57" max="59" width="19.83203125" customWidth="1"/>
-    <col min="60" max="60" width="20.83203125" customWidth="1"/>
-    <col min="61" max="61" width="8.6640625" customWidth="1"/>
-    <col min="62" max="62" width="15.5" customWidth="1"/>
-    <col min="63" max="63" width="13.6640625" style="13" customWidth="1"/>
-    <col min="64" max="64" width="13.1640625" style="13" customWidth="1"/>
-    <col min="65" max="65" width="12.5" style="20" customWidth="1"/>
-    <col min="66" max="66" width="26" style="20" customWidth="1"/>
-    <col min="67" max="67" width="31.33203125" style="20" customWidth="1"/>
-    <col min="68" max="68" width="9" customWidth="1"/>
-    <col min="69" max="69" width="16.5" customWidth="1"/>
-    <col min="70" max="70" width="16" customWidth="1"/>
-    <col min="71" max="71" width="9.5" customWidth="1"/>
-    <col min="72" max="72" width="11" style="26" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" style="26" customWidth="1"/>
-    <col min="74" max="74" width="14.33203125" style="26" customWidth="1"/>
-    <col min="75" max="75" width="12.6640625" style="26" customWidth="1"/>
-    <col min="76" max="76" width="13.6640625" style="26" customWidth="1"/>
-    <col min="77" max="77" width="15.33203125" style="26" customWidth="1"/>
-    <col min="78" max="78" width="15.5" style="26" customWidth="1"/>
-    <col min="79" max="79" width="14.6640625" style="26" customWidth="1"/>
-    <col min="80" max="80" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="39" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="23" style="39" customWidth="1"/>
+    <col min="11" max="11" width="31.1640625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="39" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="39" customWidth="1"/>
+    <col min="16" max="16" width="30.33203125" style="34" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" style="58" customWidth="1"/>
+    <col min="19" max="19" width="14" style="61" customWidth="1"/>
+    <col min="20" max="21" width="16.83203125" customWidth="1"/>
+    <col min="22" max="22" width="11.5" customWidth="1"/>
+    <col min="23" max="23" width="43.6640625" style="20" customWidth="1"/>
+    <col min="24" max="24" width="44.33203125" style="20" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" customWidth="1"/>
+    <col min="26" max="26" width="25.5" style="49" customWidth="1"/>
+    <col min="27" max="27" width="20.1640625" style="20" customWidth="1"/>
+    <col min="28" max="28" width="22" style="23" customWidth="1"/>
+    <col min="29" max="29" width="17.83203125" style="49" customWidth="1"/>
+    <col min="30" max="30" width="21.5" style="20" customWidth="1"/>
+    <col min="31" max="31" width="27.6640625" style="24" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" customWidth="1"/>
+    <col min="33" max="33" width="11" customWidth="1"/>
+    <col min="34" max="34" width="13.5" style="3" customWidth="1"/>
+    <col min="35" max="35" width="9.1640625" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" style="3" customWidth="1"/>
+    <col min="37" max="37" width="15.83203125" style="3" customWidth="1"/>
+    <col min="38" max="38" width="8.5" customWidth="1"/>
+    <col min="39" max="39" width="10.33203125" style="18" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" customWidth="1"/>
+    <col min="41" max="41" width="11.5" customWidth="1"/>
+    <col min="42" max="42" width="19.6640625" customWidth="1"/>
+    <col min="43" max="43" width="12.83203125" style="62" customWidth="1"/>
+    <col min="44" max="44" width="32.83203125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="13" style="62" customWidth="1"/>
+    <col min="46" max="46" width="35.6640625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.1640625" customWidth="1"/>
+    <col min="48" max="48" width="12.5" customWidth="1"/>
+    <col min="49" max="49" width="15" customWidth="1"/>
+    <col min="50" max="50" width="10.83203125" customWidth="1"/>
+    <col min="51" max="51" width="14" customWidth="1"/>
+    <col min="52" max="52" width="13.1640625" customWidth="1"/>
+    <col min="53" max="53" width="15.6640625" customWidth="1"/>
+    <col min="54" max="54" width="11.6640625" customWidth="1"/>
+    <col min="55" max="55" width="12.1640625" customWidth="1"/>
+    <col min="56" max="56" width="13" customWidth="1"/>
+    <col min="57" max="57" width="10.1640625" customWidth="1"/>
+    <col min="58" max="60" width="19.83203125" customWidth="1"/>
+    <col min="61" max="61" width="20.83203125" customWidth="1"/>
+    <col min="62" max="62" width="8.6640625" customWidth="1"/>
+    <col min="63" max="63" width="15.5" customWidth="1"/>
+    <col min="64" max="64" width="13.6640625" style="13" customWidth="1"/>
+    <col min="65" max="65" width="13.1640625" style="13" customWidth="1"/>
+    <col min="66" max="66" width="12.5" style="20" customWidth="1"/>
+    <col min="67" max="67" width="26" style="20" customWidth="1"/>
+    <col min="68" max="68" width="31.33203125" style="20" customWidth="1"/>
+    <col min="69" max="69" width="9" customWidth="1"/>
+    <col min="70" max="70" width="16.5" customWidth="1"/>
+    <col min="71" max="71" width="16" customWidth="1"/>
+    <col min="72" max="72" width="9.5" customWidth="1"/>
+    <col min="73" max="73" width="11" style="26" customWidth="1"/>
+    <col min="74" max="74" width="11.6640625" style="26" customWidth="1"/>
+    <col min="75" max="75" width="14.33203125" style="26" customWidth="1"/>
+    <col min="76" max="76" width="12.6640625" style="26" customWidth="1"/>
+    <col min="77" max="77" width="13.6640625" style="26" customWidth="1"/>
+    <col min="78" max="78" width="15.33203125" style="26" customWidth="1"/>
+    <col min="79" max="79" width="15.5" style="26" customWidth="1"/>
+    <col min="80" max="80" width="14.6640625" style="26" customWidth="1"/>
+    <col min="81" max="81" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
@@ -2465,37 +2472,37 @@
       <c r="H1" s="37"/>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="51"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="21"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="7"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="38"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="51"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="21"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="5"/>
       <c r="AJ1" s="7"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="5"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="9"/>
-      <c r="AU1" s="5"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="5"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="9"/>
       <c r="AV1" s="5"/>
       <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
@@ -2503,37 +2510,38 @@
       <c r="AZ1" s="5"/>
       <c r="BA1" s="5"/>
       <c r="BB1" s="5"/>
-      <c r="BC1" s="12"/>
-      <c r="BE1" s="63" t="s">
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="12"/>
+      <c r="BF1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="BF1" s="63"/>
       <c r="BG1" s="63"/>
       <c r="BH1" s="63"/>
-      <c r="BJ1" s="63" t="s">
+      <c r="BI1" s="63"/>
+      <c r="BK1" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="BK1" s="63"/>
       <c r="BL1" s="63"/>
       <c r="BM1" s="63"/>
       <c r="BN1" s="63"/>
       <c r="BO1" s="63"/>
-      <c r="BQ1" s="63" t="s">
+      <c r="BP1" s="63"/>
+      <c r="BR1" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="BR1" s="63"/>
-      <c r="BT1" s="10" t="s">
+      <c r="BS1" s="63"/>
+      <c r="BU1" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="BU1" s="25"/>
       <c r="BV1" s="25"/>
       <c r="BW1" s="25"/>
       <c r="BX1" s="25"/>
       <c r="BY1" s="25"/>
       <c r="BZ1" s="25"/>
       <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
     </row>
-    <row r="2" spans="1:80" s="47" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" s="47" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>49</v>
       </c>
@@ -2549,207 +2557,210 @@
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
       <c r="G2" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="L2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="53"/>
+      <c r="N2" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="S2" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="T2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="U2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="53"/>
+      <c r="W2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="X2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="AA2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AB2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AC2" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AD2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AE2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AG2" s="41" t="s">
+      <c r="AH2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AI2" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" s="41" t="s">
+      <c r="AJ2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="41" t="s">
+      <c r="AK2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" s="41" t="s">
+      <c r="AL2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="42" t="s">
+      <c r="AM2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="41" t="s">
+      <c r="AN2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="41" t="s">
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="AP2" s="41" t="s">
+      <c r="AQ2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="41" t="s">
+      <c r="AR2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="41" t="s">
+      <c r="AS2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="41" t="s">
+      <c r="AT2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="41" t="s">
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AV2" s="41" t="s">
+      <c r="AW2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AW2" s="41" t="s">
+      <c r="AX2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX2" s="41" t="s">
+      <c r="AY2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="41" t="s">
+      <c r="AZ2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AZ2" s="41" t="s">
+      <c r="BA2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="BA2" s="41" t="s">
+      <c r="BB2" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="BB2" s="41" t="s">
+      <c r="BC2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="BC2" s="41" t="s">
+      <c r="BD2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="43" t="s">
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="BF2" s="43" t="s">
+      <c r="BG2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="BG2" s="43" t="s">
+      <c r="BH2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BH2" s="43" t="s">
+      <c r="BI2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="44" t="s">
+      <c r="BJ2" s="54"/>
+      <c r="BK2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="BK2" s="44" t="s">
+      <c r="BL2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="BL2" s="44" t="s">
+      <c r="BM2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="BM2" s="44" t="s">
+      <c r="BN2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="BN2" s="44" t="s">
+      <c r="BO2" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="BO2" s="44" t="s">
+      <c r="BP2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="45" t="s">
+      <c r="BQ2" s="54"/>
+      <c r="BR2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="BR2" s="45" t="s">
+      <c r="BS2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="46" t="s">
+      <c r="BT2" s="54"/>
+      <c r="BU2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="BU2" s="46" t="s">
+      <c r="BV2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="BV2" s="46" t="s">
+      <c r="BW2" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="BW2" s="46" t="s">
+      <c r="BX2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="BX2" s="46" t="s">
+      <c r="BY2" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="BY2" s="46" t="s">
+      <c r="BZ2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="BZ2" s="46" t="s">
+      <c r="CA2" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="CA2" s="46" t="s">
+      <c r="CB2" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="CB2" s="54"/>
+      <c r="CC2" s="54"/>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
-        <f>COUNTIF(C3,"&lt;&gt;"&amp;"")+COUNTIF(BO3,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C3,"&lt;&gt;"&amp;"")+COUNTIF(BP3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="27">
@@ -2762,124 +2773,126 @@
         <v>293</v>
       </c>
       <c r="G3" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="I3" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="J3" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="K3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="L3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="N3" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="O3" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="P3" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="Q3" s="57">
+      <c r="R3" s="57">
         <v>1541441</v>
       </c>
-      <c r="R3" s="60">
+      <c r="S3" s="60">
         <v>1541441</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="T3" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="U3" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="U3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="49" t="s">
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="AA3" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA3" s="23" t="s">
+      <c r="AB3" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB3" s="49" t="s">
+      <c r="AC3" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AD3" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD3" s="24" t="s">
+      <c r="AE3" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="15">
+      <c r="AF3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN3" t="s">
-        <v>49</v>
-      </c>
       <c r="AO3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3" t="s">
         <v>292</v>
       </c>
-      <c r="AP3" s="62" t="s">
+      <c r="AQ3" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR3" s="62" t="s">
+      <c r="AS3" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT3" t="s">
-        <v>49</v>
-      </c>
       <c r="AU3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV3" t="s">
         <v>8</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>9</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>10</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>77</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>11</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>287</v>
-      </c>
-      <c r="BB3">
-        <v>111</v>
       </c>
       <c r="BC3">
         <v>111</v>
       </c>
-      <c r="BJ3" s="29"/>
-      <c r="BK3" s="30"/>
+      <c r="BD3">
+        <v>111</v>
+      </c>
+      <c r="BK3" s="29"/>
       <c r="BL3" s="30"/>
-      <c r="BM3"/>
+      <c r="BM3" s="30"/>
       <c r="BN3"/>
-      <c r="BO3" s="30"/>
-      <c r="BT3"/>
+      <c r="BO3"/>
+      <c r="BP3" s="30"/>
       <c r="BU3"/>
       <c r="BV3"/>
       <c r="BW3"/>
@@ -2887,10 +2900,11 @@
       <c r="BY3"/>
       <c r="BZ3"/>
       <c r="CA3"/>
+      <c r="CB3"/>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <f>COUNTIF(C4,"&lt;&gt;"&amp;"")+COUNTIF(BO4,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C4,"&lt;&gt;"&amp;"")+COUNTIF(BP4,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B4" s="27">
@@ -2903,124 +2917,126 @@
         <v>293</v>
       </c>
       <c r="G4" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="I4" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="K4" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="L4" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="N4" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="O4" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="P4" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="Q4" s="57">
+      <c r="R4" s="57">
         <v>1513804</v>
       </c>
-      <c r="R4" s="60">
+      <c r="S4" s="60">
         <v>1513804</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="T4" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="U4" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="U4" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="49" t="s">
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="AA4" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AB4" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB4" s="49" t="s">
+      <c r="AC4" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AD4" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD4" s="24" t="s">
+      <c r="AE4" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="15">
+      <c r="AF4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN4" t="s">
-        <v>49</v>
-      </c>
       <c r="AO4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" t="s">
         <v>292</v>
       </c>
-      <c r="AP4" s="62" t="s">
+      <c r="AQ4" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR4" s="62" t="s">
+      <c r="AS4" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT4" t="s">
-        <v>49</v>
-      </c>
       <c r="AU4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV4" t="s">
         <v>8</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>9</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>10</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>77</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>11</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>287</v>
-      </c>
-      <c r="BB4">
-        <v>111</v>
       </c>
       <c r="BC4">
         <v>111</v>
       </c>
-      <c r="BJ4" s="29"/>
-      <c r="BK4" s="30"/>
+      <c r="BD4">
+        <v>111</v>
+      </c>
+      <c r="BK4" s="29"/>
       <c r="BL4" s="30"/>
-      <c r="BM4"/>
+      <c r="BM4" s="30"/>
       <c r="BN4"/>
-      <c r="BO4" s="30"/>
-      <c r="BT4"/>
+      <c r="BO4"/>
+      <c r="BP4" s="30"/>
       <c r="BU4"/>
       <c r="BV4"/>
       <c r="BW4"/>
@@ -3028,10 +3044,11 @@
       <c r="BY4"/>
       <c r="BZ4"/>
       <c r="CA4"/>
+      <c r="CB4"/>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
-        <f>COUNTIF(C5,"&lt;&gt;"&amp;"")+COUNTIF(BO5,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C5,"&lt;&gt;"&amp;"")+COUNTIF(BP5,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B5" s="27">
@@ -3044,124 +3061,126 @@
         <v>293</v>
       </c>
       <c r="G5" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="I5" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="J5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="K5" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="L5" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="N5" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="O5" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="P5" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="Q5" s="57">
+      <c r="R5" s="57">
         <v>1563302</v>
       </c>
-      <c r="R5" s="60">
+      <c r="S5" s="60">
         <v>1563302</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="T5" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="T5" s="28" t="s">
+      <c r="U5" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="U5" t="s">
-        <v>49</v>
-      </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="49" t="s">
+      <c r="V5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z5" s="20" t="s">
+      <c r="AA5" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA5" s="23" t="s">
+      <c r="AB5" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB5" s="49" t="s">
+      <c r="AC5" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC5" s="20" t="s">
+      <c r="AD5" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD5" s="24" t="s">
+      <c r="AE5" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="15">
+      <c r="AF5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN5" t="s">
-        <v>49</v>
-      </c>
       <c r="AO5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP5" t="s">
         <v>294</v>
       </c>
-      <c r="AP5" s="62" t="s">
+      <c r="AQ5" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR5" s="62" t="s">
+      <c r="AS5" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT5" t="s">
-        <v>49</v>
-      </c>
       <c r="AU5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV5" t="s">
         <v>8</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>9</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>77</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>11</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>287</v>
-      </c>
-      <c r="BB5">
-        <v>111</v>
       </c>
       <c r="BC5">
         <v>111</v>
       </c>
-      <c r="BJ5" s="29"/>
-      <c r="BK5" s="30"/>
+      <c r="BD5">
+        <v>111</v>
+      </c>
+      <c r="BK5" s="29"/>
       <c r="BL5" s="30"/>
-      <c r="BM5"/>
+      <c r="BM5" s="30"/>
       <c r="BN5"/>
-      <c r="BO5" s="30"/>
-      <c r="BT5"/>
+      <c r="BO5"/>
+      <c r="BP5" s="30"/>
       <c r="BU5"/>
       <c r="BV5"/>
       <c r="BW5"/>
@@ -3169,10 +3188,11 @@
       <c r="BY5"/>
       <c r="BZ5"/>
       <c r="CA5"/>
+      <c r="CB5"/>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
-        <f>COUNTIF(C6,"&lt;&gt;"&amp;"")+COUNTIF(BO6,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C6,"&lt;&gt;"&amp;"")+COUNTIF(BP6,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B6" s="27">
@@ -3185,124 +3205,126 @@
         <v>293</v>
       </c>
       <c r="G6" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="I6" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="J6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="K6" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="L6" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="N6" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="P6" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="Q6" s="57">
+      <c r="R6" s="57">
         <v>1565845</v>
       </c>
-      <c r="R6" s="60">
+      <c r="S6" s="60">
         <v>1565845</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="T6" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="U6" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="U6" t="s">
-        <v>49</v>
-      </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="49" t="s">
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="AA6" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA6" s="23" t="s">
+      <c r="AB6" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB6" s="49" t="s">
+      <c r="AC6" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC6" s="20" t="s">
+      <c r="AD6" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD6" s="24" t="s">
+      <c r="AE6" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="15">
+      <c r="AF6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN6" t="s">
-        <v>49</v>
-      </c>
       <c r="AO6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP6" t="s">
         <v>294</v>
       </c>
-      <c r="AP6" s="62" t="s">
+      <c r="AQ6" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR6" s="62" t="s">
+      <c r="AS6" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT6" t="s">
-        <v>49</v>
-      </c>
       <c r="AU6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV6" t="s">
         <v>8</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
         <v>9</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>10</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>77</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>11</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>287</v>
-      </c>
-      <c r="BB6">
-        <v>111</v>
       </c>
       <c r="BC6">
         <v>111</v>
       </c>
-      <c r="BJ6" s="29"/>
-      <c r="BK6" s="30"/>
+      <c r="BD6">
+        <v>111</v>
+      </c>
+      <c r="BK6" s="29"/>
       <c r="BL6" s="30"/>
-      <c r="BM6"/>
+      <c r="BM6" s="30"/>
       <c r="BN6"/>
-      <c r="BO6" s="30"/>
-      <c r="BT6"/>
+      <c r="BO6"/>
+      <c r="BP6" s="30"/>
       <c r="BU6"/>
       <c r="BV6"/>
       <c r="BW6"/>
@@ -3310,10 +3332,11 @@
       <c r="BY6"/>
       <c r="BZ6"/>
       <c r="CA6"/>
+      <c r="CB6"/>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
-        <f>COUNTIF(C7,"&lt;&gt;"&amp;"")+COUNTIF(BO7,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C7,"&lt;&gt;"&amp;"")+COUNTIF(BP7,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B7" s="27">
@@ -3326,124 +3349,126 @@
         <v>293</v>
       </c>
       <c r="G7" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="J7" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="K7" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="L7" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="N7" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="O7" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="P7" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="Q7" s="57">
+      <c r="R7" s="57">
         <v>677372</v>
       </c>
-      <c r="R7" s="60">
+      <c r="S7" s="60">
         <v>677372</v>
       </c>
-      <c r="S7" s="31" t="s">
+      <c r="T7" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="U7" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="U7" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="49" t="s">
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="AA7" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA7" s="23" t="s">
+      <c r="AB7" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB7" s="49" t="s">
+      <c r="AC7" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC7" s="20" t="s">
+      <c r="AD7" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD7" s="24" t="s">
+      <c r="AE7" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="15">
+      <c r="AF7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN7" t="s">
-        <v>49</v>
-      </c>
       <c r="AO7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP7" t="s">
         <v>294</v>
       </c>
-      <c r="AP7" s="62" t="s">
+      <c r="AQ7" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AR7" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR7" s="62" t="s">
+      <c r="AS7" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT7" t="s">
-        <v>49</v>
-      </c>
       <c r="AU7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV7" t="s">
         <v>8</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AW7" t="s">
         <v>9</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>10</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>77</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>11</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>287</v>
-      </c>
-      <c r="BB7">
-        <v>111</v>
       </c>
       <c r="BC7">
         <v>111</v>
       </c>
-      <c r="BJ7" s="29"/>
-      <c r="BK7" s="30"/>
+      <c r="BD7">
+        <v>111</v>
+      </c>
+      <c r="BK7" s="29"/>
       <c r="BL7" s="30"/>
-      <c r="BM7"/>
+      <c r="BM7" s="30"/>
       <c r="BN7"/>
-      <c r="BO7" s="30"/>
-      <c r="BT7"/>
+      <c r="BO7"/>
+      <c r="BP7" s="30"/>
       <c r="BU7"/>
       <c r="BV7"/>
       <c r="BW7"/>
@@ -3451,10 +3476,11 @@
       <c r="BY7"/>
       <c r="BZ7"/>
       <c r="CA7"/>
+      <c r="CB7"/>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
-        <f>COUNTIF(C8,"&lt;&gt;"&amp;"")+COUNTIF(BO8,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C8,"&lt;&gt;"&amp;"")+COUNTIF(BP8,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B8" s="27">
@@ -3467,124 +3493,126 @@
         <v>293</v>
       </c>
       <c r="G8" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="I8" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="J8" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="K8" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="L8" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="N8" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="O8" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="P8" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="Q8" s="57">
+      <c r="R8" s="57">
         <v>663201</v>
       </c>
-      <c r="R8" s="60">
+      <c r="S8" s="60">
         <v>663201</v>
       </c>
-      <c r="S8" s="31" t="s">
+      <c r="T8" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="T8" s="28" t="s">
+      <c r="U8" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="U8" t="s">
-        <v>49</v>
-      </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="49" t="s">
+      <c r="V8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="AA8" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA8" s="23" t="s">
+      <c r="AB8" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB8" s="49" t="s">
+      <c r="AC8" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC8" s="20" t="s">
+      <c r="AD8" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD8" s="24" t="s">
+      <c r="AE8" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="15">
+      <c r="AF8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN8" t="s">
-        <v>49</v>
-      </c>
       <c r="AO8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP8" t="s">
         <v>294</v>
       </c>
-      <c r="AP8" s="62" t="s">
+      <c r="AQ8" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR8" s="62" t="s">
+      <c r="AS8" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AT8" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT8" t="s">
-        <v>49</v>
-      </c>
       <c r="AU8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV8" t="s">
         <v>8</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AW8" t="s">
         <v>9</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>10</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>77</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>11</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>287</v>
-      </c>
-      <c r="BB8">
-        <v>111</v>
       </c>
       <c r="BC8">
         <v>111</v>
       </c>
-      <c r="BJ8" s="29"/>
-      <c r="BK8" s="30"/>
+      <c r="BD8">
+        <v>111</v>
+      </c>
+      <c r="BK8" s="29"/>
       <c r="BL8" s="30"/>
-      <c r="BM8"/>
+      <c r="BM8" s="30"/>
       <c r="BN8"/>
-      <c r="BO8" s="30"/>
-      <c r="BT8"/>
+      <c r="BO8"/>
+      <c r="BP8" s="30"/>
       <c r="BU8"/>
       <c r="BV8"/>
       <c r="BW8"/>
@@ -3592,10 +3620,11 @@
       <c r="BY8"/>
       <c r="BZ8"/>
       <c r="CA8"/>
+      <c r="CB8"/>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
-        <f>COUNTIF(C9,"&lt;&gt;"&amp;"")+COUNTIF(BO9,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C9,"&lt;&gt;"&amp;"")+COUNTIF(BP9,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B9" s="27">
@@ -3608,124 +3637,126 @@
         <v>293</v>
       </c>
       <c r="G9" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="I9" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="J9" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="K9" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="L9" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="N9" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="O9" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="Q9" s="57">
+      <c r="R9" s="57">
         <v>686948</v>
       </c>
-      <c r="R9" s="60">
+      <c r="S9" s="60">
         <v>686948</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="T9" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="U9" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="U9" t="s">
-        <v>49</v>
-      </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="49" t="s">
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z9" s="20" t="s">
+      <c r="AA9" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA9" s="23" t="s">
+      <c r="AB9" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB9" s="49" t="s">
+      <c r="AC9" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AD9" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD9" s="24" t="s">
+      <c r="AE9" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="15">
+      <c r="AF9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN9" t="s">
-        <v>49</v>
-      </c>
       <c r="AO9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP9" t="s">
         <v>294</v>
       </c>
-      <c r="AP9" s="62" t="s">
+      <c r="AQ9" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AR9" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR9" s="62" t="s">
+      <c r="AS9" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS9" s="1" t="s">
+      <c r="AT9" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT9" t="s">
-        <v>49</v>
-      </c>
       <c r="AU9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV9" t="s">
         <v>8</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AW9" t="s">
         <v>9</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>10</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>77</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>11</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>287</v>
-      </c>
-      <c r="BB9">
-        <v>111</v>
       </c>
       <c r="BC9">
         <v>111</v>
       </c>
-      <c r="BJ9" s="29"/>
-      <c r="BK9" s="30"/>
+      <c r="BD9">
+        <v>111</v>
+      </c>
+      <c r="BK9" s="29"/>
       <c r="BL9" s="30"/>
-      <c r="BM9"/>
+      <c r="BM9" s="30"/>
       <c r="BN9"/>
-      <c r="BO9" s="30"/>
-      <c r="BT9"/>
+      <c r="BO9"/>
+      <c r="BP9" s="30"/>
       <c r="BU9"/>
       <c r="BV9"/>
       <c r="BW9"/>
@@ -3733,10 +3764,11 @@
       <c r="BY9"/>
       <c r="BZ9"/>
       <c r="CA9"/>
+      <c r="CB9"/>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
-        <f>COUNTIF(C10,"&lt;&gt;"&amp;"")+COUNTIF(BO10,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C10,"&lt;&gt;"&amp;"")+COUNTIF(BP10,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B10" s="27">
@@ -3749,124 +3781,126 @@
         <v>293</v>
       </c>
       <c r="G10" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="I10" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="J10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="K10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="L10" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="N10" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="O10" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="P10" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="Q10" s="57">
+      <c r="R10" s="57">
         <v>686723</v>
       </c>
-      <c r="R10" s="60">
+      <c r="S10" s="60">
         <v>686723</v>
       </c>
-      <c r="S10" s="31" t="s">
+      <c r="T10" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="U10" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="U10" t="s">
-        <v>49</v>
-      </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="49" t="s">
+      <c r="V10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z10" s="20" t="s">
+      <c r="AA10" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA10" s="23" t="s">
+      <c r="AB10" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB10" s="49" t="s">
+      <c r="AC10" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AD10" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD10" s="24" t="s">
+      <c r="AE10" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="15">
+      <c r="AF10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN10" t="s">
-        <v>49</v>
-      </c>
       <c r="AO10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP10" t="s">
         <v>294</v>
       </c>
-      <c r="AP10" s="62" t="s">
+      <c r="AQ10" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ10" s="1" t="s">
+      <c r="AR10" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR10" s="62" t="s">
+      <c r="AS10" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS10" s="1" t="s">
+      <c r="AT10" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT10" t="s">
-        <v>49</v>
-      </c>
       <c r="AU10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV10" t="s">
         <v>8</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>9</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>10</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>77</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>11</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>287</v>
-      </c>
-      <c r="BB10">
-        <v>111</v>
       </c>
       <c r="BC10">
         <v>111</v>
       </c>
-      <c r="BJ10" s="29"/>
-      <c r="BK10" s="30"/>
+      <c r="BD10">
+        <v>111</v>
+      </c>
+      <c r="BK10" s="29"/>
       <c r="BL10" s="30"/>
-      <c r="BM10"/>
+      <c r="BM10" s="30"/>
       <c r="BN10"/>
-      <c r="BO10" s="30"/>
-      <c r="BT10"/>
+      <c r="BO10"/>
+      <c r="BP10" s="30"/>
       <c r="BU10"/>
       <c r="BV10"/>
       <c r="BW10"/>
@@ -3874,10 +3908,11 @@
       <c r="BY10"/>
       <c r="BZ10"/>
       <c r="CA10"/>
+      <c r="CB10"/>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
-        <f>COUNTIF(C11,"&lt;&gt;"&amp;"")+COUNTIF(BO11,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C11,"&lt;&gt;"&amp;"")+COUNTIF(BP11,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B11" s="27">
@@ -3890,124 +3925,126 @@
         <v>293</v>
       </c>
       <c r="G11" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="I11" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="J11" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="K11" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="L11" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="N11" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="O11" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="P11" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="Q11" s="57">
+      <c r="R11" s="57">
         <v>1539394</v>
       </c>
-      <c r="R11" s="60">
+      <c r="S11" s="60">
         <v>1539394</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="T11" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="T11" s="23" t="s">
+      <c r="U11" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="U11" t="s">
-        <v>49</v>
-      </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="49" t="s">
+      <c r="V11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z11" s="20" t="s">
+      <c r="AA11" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA11" s="23" t="s">
+      <c r="AB11" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB11" s="49" t="s">
+      <c r="AC11" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC11" s="20" t="s">
+      <c r="AD11" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD11" s="24" t="s">
+      <c r="AE11" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="15">
+      <c r="AF11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN11" t="s">
-        <v>49</v>
-      </c>
       <c r="AO11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP11" t="s">
         <v>294</v>
       </c>
-      <c r="AP11" s="62" t="s">
+      <c r="AQ11" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ11" s="1" t="s">
+      <c r="AR11" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR11" s="62" t="s">
+      <c r="AS11" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS11" s="1" t="s">
+      <c r="AT11" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT11" t="s">
-        <v>49</v>
-      </c>
       <c r="AU11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV11" t="s">
         <v>8</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
         <v>9</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>10</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>77</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>11</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>287</v>
-      </c>
-      <c r="BB11">
-        <v>111</v>
       </c>
       <c r="BC11">
         <v>111</v>
       </c>
-      <c r="BJ11" s="29"/>
-      <c r="BK11" s="30"/>
+      <c r="BD11">
+        <v>111</v>
+      </c>
+      <c r="BK11" s="29"/>
       <c r="BL11" s="30"/>
-      <c r="BM11"/>
+      <c r="BM11" s="30"/>
       <c r="BN11"/>
-      <c r="BO11" s="30"/>
-      <c r="BT11"/>
+      <c r="BO11"/>
+      <c r="BP11" s="30"/>
       <c r="BU11"/>
       <c r="BV11"/>
       <c r="BW11"/>
@@ -4015,10 +4052,11 @@
       <c r="BY11"/>
       <c r="BZ11"/>
       <c r="CA11"/>
+      <c r="CB11"/>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
-        <f>COUNTIF(C12,"&lt;&gt;"&amp;"")+COUNTIF(BO12,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C12,"&lt;&gt;"&amp;"")+COUNTIF(BP12,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B12" s="27">
@@ -4031,124 +4069,126 @@
         <v>293</v>
       </c>
       <c r="G12" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="I12" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="J12" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="K12" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="L12" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="N12" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="O12" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="O12" s="34" t="s">
+      <c r="P12" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="R12" s="57">
         <v>1510757</v>
       </c>
-      <c r="R12" s="60">
+      <c r="S12" s="60">
         <v>1510757</v>
       </c>
-      <c r="S12" s="31" t="s">
+      <c r="T12" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="T12" s="23" t="s">
+      <c r="U12" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="U12" t="s">
-        <v>49</v>
-      </c>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="49" t="s">
+      <c r="V12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z12" s="20" t="s">
+      <c r="AA12" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA12" s="23" t="s">
+      <c r="AB12" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB12" s="49" t="s">
+      <c r="AC12" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC12" s="20" t="s">
+      <c r="AD12" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD12" s="24" t="s">
+      <c r="AE12" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="15">
+      <c r="AF12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN12" t="s">
-        <v>49</v>
-      </c>
       <c r="AO12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP12" t="s">
         <v>294</v>
       </c>
-      <c r="AP12" s="62" t="s">
+      <c r="AQ12" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ12" s="1" t="s">
+      <c r="AR12" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR12" s="62" t="s">
+      <c r="AS12" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS12" s="1" t="s">
+      <c r="AT12" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT12" t="s">
-        <v>49</v>
-      </c>
       <c r="AU12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV12" t="s">
         <v>8</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
         <v>9</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>10</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>77</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>11</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>287</v>
-      </c>
-      <c r="BB12">
-        <v>111</v>
       </c>
       <c r="BC12">
         <v>111</v>
       </c>
-      <c r="BJ12" s="29"/>
-      <c r="BK12" s="30"/>
+      <c r="BD12">
+        <v>111</v>
+      </c>
+      <c r="BK12" s="29"/>
       <c r="BL12" s="30"/>
-      <c r="BM12"/>
+      <c r="BM12" s="30"/>
       <c r="BN12"/>
-      <c r="BO12" s="30"/>
-      <c r="BT12"/>
+      <c r="BO12"/>
+      <c r="BP12" s="30"/>
       <c r="BU12"/>
       <c r="BV12"/>
       <c r="BW12"/>
@@ -4156,10 +4196,11 @@
       <c r="BY12"/>
       <c r="BZ12"/>
       <c r="CA12"/>
+      <c r="CB12"/>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
-        <f>COUNTIF(C13,"&lt;&gt;"&amp;"")+COUNTIF(BO13,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C13,"&lt;&gt;"&amp;"")+COUNTIF(BP13,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B13" s="27">
@@ -4172,124 +4213,126 @@
         <v>293</v>
       </c>
       <c r="G13" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="I13" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="J13" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="K13" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="L13" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="N13" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="O13" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="O13" s="34" t="s">
+      <c r="P13" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="Q13" s="57">
+      <c r="R13" s="57">
         <v>1562525</v>
       </c>
-      <c r="R13" s="60">
+      <c r="S13" s="60">
         <v>1562525</v>
       </c>
-      <c r="S13" s="31" t="s">
+      <c r="T13" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="T13" s="23" t="s">
+      <c r="U13" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="U13" t="s">
-        <v>49</v>
-      </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="49" t="s">
+      <c r="V13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z13" s="20" t="s">
+      <c r="AA13" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA13" s="23" t="s">
+      <c r="AB13" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB13" s="49" t="s">
+      <c r="AC13" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC13" s="20" t="s">
+      <c r="AD13" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD13" s="24" t="s">
+      <c r="AE13" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="15">
+      <c r="AF13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN13" t="s">
-        <v>49</v>
-      </c>
       <c r="AO13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP13" t="s">
         <v>294</v>
       </c>
-      <c r="AP13" s="62" t="s">
+      <c r="AQ13" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ13" s="1" t="s">
+      <c r="AR13" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR13" s="62" t="s">
+      <c r="AS13" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS13" s="1" t="s">
+      <c r="AT13" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT13" t="s">
-        <v>49</v>
-      </c>
       <c r="AU13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV13" t="s">
         <v>8</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AW13" t="s">
         <v>9</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>10</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>77</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>11</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>287</v>
-      </c>
-      <c r="BB13">
-        <v>111</v>
       </c>
       <c r="BC13">
         <v>111</v>
       </c>
-      <c r="BJ13" s="29"/>
-      <c r="BK13" s="30"/>
+      <c r="BD13">
+        <v>111</v>
+      </c>
+      <c r="BK13" s="29"/>
       <c r="BL13" s="30"/>
-      <c r="BM13"/>
+      <c r="BM13" s="30"/>
       <c r="BN13"/>
-      <c r="BO13" s="30"/>
-      <c r="BT13"/>
+      <c r="BO13"/>
+      <c r="BP13" s="30"/>
       <c r="BU13"/>
       <c r="BV13"/>
       <c r="BW13"/>
@@ -4297,10 +4340,11 @@
       <c r="BY13"/>
       <c r="BZ13"/>
       <c r="CA13"/>
+      <c r="CB13"/>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
-        <f>COUNTIF(C14,"&lt;&gt;"&amp;"")+COUNTIF(BO14,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C14,"&lt;&gt;"&amp;"")+COUNTIF(BP14,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B14" s="27">
@@ -4313,124 +4357,126 @@
         <v>293</v>
       </c>
       <c r="G14" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H14" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="I14" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="J14" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="K14" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="L14" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="N14" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="O14" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="P14" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="R14" s="57">
         <v>1560693</v>
       </c>
-      <c r="R14" s="60">
+      <c r="S14" s="60">
         <v>1560693</v>
       </c>
-      <c r="S14" s="31" t="s">
+      <c r="T14" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="T14" s="23" t="s">
+      <c r="U14" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="U14" t="s">
-        <v>49</v>
-      </c>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="49" t="s">
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z14" s="20" t="s">
+      <c r="AA14" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA14" s="23" t="s">
+      <c r="AB14" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB14" s="49" t="s">
+      <c r="AC14" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC14" s="20" t="s">
+      <c r="AD14" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD14" s="24" t="s">
+      <c r="AE14" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="15">
+      <c r="AF14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN14" t="s">
-        <v>49</v>
-      </c>
       <c r="AO14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP14" t="s">
         <v>294</v>
       </c>
-      <c r="AP14" s="62" t="s">
+      <c r="AQ14" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ14" s="1" t="s">
+      <c r="AR14" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR14" s="62" t="s">
+      <c r="AS14" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS14" s="1" t="s">
+      <c r="AT14" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT14" t="s">
-        <v>49</v>
-      </c>
       <c r="AU14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV14" t="s">
         <v>8</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AW14" t="s">
         <v>9</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AX14" t="s">
         <v>10</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>77</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>11</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
         <v>287</v>
-      </c>
-      <c r="BB14">
-        <v>111</v>
       </c>
       <c r="BC14">
         <v>111</v>
       </c>
-      <c r="BJ14" s="29"/>
-      <c r="BK14" s="30"/>
+      <c r="BD14">
+        <v>111</v>
+      </c>
+      <c r="BK14" s="29"/>
       <c r="BL14" s="30"/>
-      <c r="BM14"/>
+      <c r="BM14" s="30"/>
       <c r="BN14"/>
-      <c r="BO14" s="30"/>
-      <c r="BT14"/>
+      <c r="BO14"/>
+      <c r="BP14" s="30"/>
       <c r="BU14"/>
       <c r="BV14"/>
       <c r="BW14"/>
@@ -4438,10 +4484,11 @@
       <c r="BY14"/>
       <c r="BZ14"/>
       <c r="CA14"/>
+      <c r="CB14"/>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
-        <f>COUNTIF(C15,"&lt;&gt;"&amp;"")+COUNTIF(BO15,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C15,"&lt;&gt;"&amp;"")+COUNTIF(BP15,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B15" s="27">
@@ -4454,124 +4501,126 @@
         <v>293</v>
       </c>
       <c r="G15" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H15" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="I15" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="J15" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="K15" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="L15" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="N15" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="O15" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="P15" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="Q15" s="57">
+      <c r="R15" s="57">
         <v>1033095</v>
       </c>
-      <c r="R15" s="60">
+      <c r="S15" s="60">
         <v>1033095</v>
       </c>
-      <c r="S15" s="31" t="s">
+      <c r="T15" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="T15" s="23" t="s">
+      <c r="U15" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="U15" t="s">
-        <v>49</v>
-      </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="49" t="s">
+      <c r="V15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z15" s="20" t="s">
+      <c r="AA15" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA15" s="23" t="s">
+      <c r="AB15" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB15" s="49" t="s">
+      <c r="AC15" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC15" s="20" t="s">
+      <c r="AD15" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD15" s="24" t="s">
+      <c r="AE15" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="15">
+      <c r="AF15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN15" t="s">
-        <v>49</v>
-      </c>
       <c r="AO15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP15" t="s">
         <v>294</v>
       </c>
-      <c r="AP15" s="62" t="s">
+      <c r="AQ15" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ15" s="1" t="s">
+      <c r="AR15" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR15" s="62" t="s">
+      <c r="AS15" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS15" s="1" t="s">
+      <c r="AT15" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT15" t="s">
-        <v>49</v>
-      </c>
       <c r="AU15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV15" t="s">
         <v>8</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AW15" t="s">
         <v>9</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AX15" t="s">
         <v>10</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>77</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>11</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
         <v>287</v>
-      </c>
-      <c r="BB15">
-        <v>111</v>
       </c>
       <c r="BC15">
         <v>111</v>
       </c>
-      <c r="BJ15" s="29"/>
-      <c r="BK15" s="30"/>
+      <c r="BD15">
+        <v>111</v>
+      </c>
+      <c r="BK15" s="29"/>
       <c r="BL15" s="30"/>
-      <c r="BM15"/>
+      <c r="BM15" s="30"/>
       <c r="BN15"/>
-      <c r="BO15" s="30"/>
-      <c r="BT15"/>
+      <c r="BO15"/>
+      <c r="BP15" s="30"/>
       <c r="BU15"/>
       <c r="BV15"/>
       <c r="BW15"/>
@@ -4579,10 +4628,11 @@
       <c r="BY15"/>
       <c r="BZ15"/>
       <c r="CA15"/>
+      <c r="CB15"/>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
-        <f>COUNTIF(C16,"&lt;&gt;"&amp;"")+COUNTIF(BO16,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C16,"&lt;&gt;"&amp;"")+COUNTIF(BP16,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B16" s="27">
@@ -4595,124 +4645,126 @@
         <v>293</v>
       </c>
       <c r="G16" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H16" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="I16" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="J16" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="K16" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="L16" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="N16" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="O16" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="O16" s="34" t="s">
+      <c r="P16" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="Q16" s="57">
+      <c r="R16" s="57">
         <v>1012051</v>
       </c>
-      <c r="R16" s="60">
+      <c r="S16" s="60">
         <v>1012051</v>
       </c>
-      <c r="S16" s="31" t="s">
+      <c r="T16" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="T16" s="23" t="s">
+      <c r="U16" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="U16" t="s">
-        <v>49</v>
-      </c>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="49" t="s">
+      <c r="V16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z16" s="20" t="s">
+      <c r="AA16" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA16" s="23" t="s">
+      <c r="AB16" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB16" s="49" t="s">
+      <c r="AC16" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC16" s="20" t="s">
+      <c r="AD16" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD16" s="24" t="s">
+      <c r="AE16" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="15">
+      <c r="AF16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN16" t="s">
-        <v>49</v>
-      </c>
       <c r="AO16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP16" t="s">
         <v>294</v>
       </c>
-      <c r="AP16" s="62" t="s">
+      <c r="AQ16" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ16" s="1" t="s">
+      <c r="AR16" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR16" s="62" t="s">
+      <c r="AS16" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS16" s="1" t="s">
+      <c r="AT16" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT16" t="s">
-        <v>49</v>
-      </c>
       <c r="AU16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV16" t="s">
         <v>8</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
         <v>9</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>10</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>77</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>11</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BA16" t="s">
         <v>287</v>
-      </c>
-      <c r="BB16">
-        <v>111</v>
       </c>
       <c r="BC16">
         <v>111</v>
       </c>
-      <c r="BJ16" s="29"/>
-      <c r="BK16" s="30"/>
+      <c r="BD16">
+        <v>111</v>
+      </c>
+      <c r="BK16" s="29"/>
       <c r="BL16" s="30"/>
-      <c r="BM16"/>
+      <c r="BM16" s="30"/>
       <c r="BN16"/>
-      <c r="BO16" s="30"/>
-      <c r="BT16"/>
+      <c r="BO16"/>
+      <c r="BP16" s="30"/>
       <c r="BU16"/>
       <c r="BV16"/>
       <c r="BW16"/>
@@ -4720,10 +4772,11 @@
       <c r="BY16"/>
       <c r="BZ16"/>
       <c r="CA16"/>
+      <c r="CB16"/>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
-        <f>COUNTIF(C17,"&lt;&gt;"&amp;"")+COUNTIF(BO17,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C17,"&lt;&gt;"&amp;"")+COUNTIF(BP17,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B17" s="27">
@@ -4736,124 +4789,126 @@
         <v>293</v>
       </c>
       <c r="G17" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H17" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="I17" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="J17" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="K17" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="L17" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="N17" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="O17" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="P17" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="Q17" s="57">
+      <c r="R17" s="57">
         <v>1045841</v>
       </c>
-      <c r="R17" s="60">
+      <c r="S17" s="60">
         <v>1045841</v>
       </c>
-      <c r="S17" s="32" t="s">
+      <c r="T17" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="T17" s="23" t="s">
+      <c r="U17" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="U17" t="s">
-        <v>49</v>
-      </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="49" t="s">
+      <c r="V17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z17" s="20" t="s">
+      <c r="AA17" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA17" s="23" t="s">
+      <c r="AB17" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB17" s="49" t="s">
+      <c r="AC17" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC17" s="20" t="s">
+      <c r="AD17" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD17" s="24" t="s">
+      <c r="AE17" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="15">
+      <c r="AF17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN17" t="s">
-        <v>49</v>
-      </c>
       <c r="AO17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP17" t="s">
         <v>294</v>
       </c>
-      <c r="AP17" s="62" t="s">
+      <c r="AQ17" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ17" s="1" t="s">
+      <c r="AR17" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR17" s="62" t="s">
+      <c r="AS17" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS17" s="1" t="s">
+      <c r="AT17" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT17" t="s">
-        <v>49</v>
-      </c>
       <c r="AU17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV17" t="s">
         <v>8</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>9</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>10</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>77</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>11</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>287</v>
-      </c>
-      <c r="BB17">
-        <v>111</v>
       </c>
       <c r="BC17">
         <v>111</v>
       </c>
-      <c r="BJ17" s="29"/>
-      <c r="BK17" s="30"/>
+      <c r="BD17">
+        <v>111</v>
+      </c>
+      <c r="BK17" s="29"/>
       <c r="BL17" s="30"/>
-      <c r="BM17"/>
+      <c r="BM17" s="30"/>
       <c r="BN17"/>
-      <c r="BO17" s="30"/>
-      <c r="BT17"/>
+      <c r="BO17"/>
+      <c r="BP17" s="30"/>
       <c r="BU17"/>
       <c r="BV17"/>
       <c r="BW17"/>
@@ -4861,10 +4916,11 @@
       <c r="BY17"/>
       <c r="BZ17"/>
       <c r="CA17"/>
+      <c r="CB17"/>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
-        <f>COUNTIF(C18,"&lt;&gt;"&amp;"")+COUNTIF(BO18,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C18,"&lt;&gt;"&amp;"")+COUNTIF(BP18,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B18" s="27">
@@ -4877,124 +4933,126 @@
         <v>293</v>
       </c>
       <c r="G18" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H18" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="I18" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="J18" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="K18" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="L18" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="N18" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="O18" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="O18" s="34" t="s">
+      <c r="P18" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="Q18" s="57">
+      <c r="R18" s="57">
         <v>1045591</v>
       </c>
-      <c r="R18" s="60">
+      <c r="S18" s="60">
         <v>1045591</v>
       </c>
-      <c r="S18" s="31" t="s">
+      <c r="T18" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="T18" s="23" t="s">
+      <c r="U18" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="U18" t="s">
-        <v>49</v>
-      </c>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="49" t="s">
+      <c r="V18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z18" s="20" t="s">
+      <c r="AA18" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA18" s="23" t="s">
+      <c r="AB18" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB18" s="49" t="s">
+      <c r="AC18" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC18" s="20" t="s">
+      <c r="AD18" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD18" s="24" t="s">
+      <c r="AE18" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="15">
+      <c r="AF18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN18" t="s">
-        <v>49</v>
-      </c>
       <c r="AO18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP18" t="s">
         <v>294</v>
       </c>
-      <c r="AP18" s="62" t="s">
+      <c r="AQ18" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ18" s="1" t="s">
+      <c r="AR18" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR18" s="62" t="s">
+      <c r="AS18" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS18" s="1" t="s">
+      <c r="AT18" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT18" t="s">
-        <v>49</v>
-      </c>
       <c r="AU18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV18" t="s">
         <v>8</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AW18" t="s">
         <v>9</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>10</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>77</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>11</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BA18" t="s">
         <v>287</v>
-      </c>
-      <c r="BB18">
-        <v>111</v>
       </c>
       <c r="BC18">
         <v>111</v>
       </c>
-      <c r="BJ18" s="29"/>
-      <c r="BK18" s="30"/>
+      <c r="BD18">
+        <v>111</v>
+      </c>
+      <c r="BK18" s="29"/>
       <c r="BL18" s="30"/>
-      <c r="BM18"/>
+      <c r="BM18" s="30"/>
       <c r="BN18"/>
-      <c r="BO18" s="30"/>
-      <c r="BT18"/>
+      <c r="BO18"/>
+      <c r="BP18" s="30"/>
       <c r="BU18"/>
       <c r="BV18"/>
       <c r="BW18"/>
@@ -5002,10 +5060,11 @@
       <c r="BY18"/>
       <c r="BZ18"/>
       <c r="CA18"/>
+      <c r="CB18"/>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
-        <f>COUNTIF(C19,"&lt;&gt;"&amp;"")+COUNTIF(BO19,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C19,"&lt;&gt;"&amp;"")+COUNTIF(BP19,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B19" s="27">
@@ -5018,124 +5077,126 @@
         <v>293</v>
       </c>
       <c r="G19" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H19" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="I19" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="J19" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="K19" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="L19" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="N19" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="O19" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="O19" s="34" t="s">
+      <c r="P19" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="Q19" s="57">
+      <c r="R19" s="57">
         <v>911612</v>
       </c>
-      <c r="R19" s="60">
+      <c r="S19" s="60">
         <v>911612</v>
       </c>
-      <c r="S19" s="31" t="s">
+      <c r="T19" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="U19" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="U19" t="s">
-        <v>49</v>
-      </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="49" t="s">
+      <c r="V19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z19" s="20" t="s">
+      <c r="AA19" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA19" s="23" t="s">
+      <c r="AB19" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB19" s="49" t="s">
+      <c r="AC19" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC19" s="20" t="s">
+      <c r="AD19" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD19" s="24" t="s">
+      <c r="AE19" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="15">
+      <c r="AF19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN19" t="s">
-        <v>49</v>
-      </c>
       <c r="AO19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP19" t="s">
         <v>294</v>
       </c>
-      <c r="AP19" s="62" t="s">
+      <c r="AQ19" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ19" s="1" t="s">
+      <c r="AR19" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR19" s="62" t="s">
+      <c r="AS19" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS19" s="1" t="s">
+      <c r="AT19" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT19" t="s">
-        <v>49</v>
-      </c>
       <c r="AU19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV19" t="s">
         <v>8</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AW19" t="s">
         <v>9</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AX19" t="s">
         <v>10</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AY19" t="s">
         <v>77</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="AZ19" t="s">
         <v>11</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BA19" t="s">
         <v>287</v>
-      </c>
-      <c r="BB19">
-        <v>111</v>
       </c>
       <c r="BC19">
         <v>111</v>
       </c>
-      <c r="BJ19" s="29"/>
-      <c r="BK19" s="30"/>
+      <c r="BD19">
+        <v>111</v>
+      </c>
+      <c r="BK19" s="29"/>
       <c r="BL19" s="30"/>
-      <c r="BM19"/>
+      <c r="BM19" s="30"/>
       <c r="BN19"/>
-      <c r="BO19" s="30"/>
-      <c r="BT19"/>
+      <c r="BO19"/>
+      <c r="BP19" s="30"/>
       <c r="BU19"/>
       <c r="BV19"/>
       <c r="BW19"/>
@@ -5143,10 +5204,11 @@
       <c r="BY19"/>
       <c r="BZ19"/>
       <c r="CA19"/>
+      <c r="CB19"/>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
-        <f>COUNTIF(C20,"&lt;&gt;"&amp;"")+COUNTIF(BO20,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C20,"&lt;&gt;"&amp;"")+COUNTIF(BP20,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B20" s="27">
@@ -5159,124 +5221,126 @@
         <v>293</v>
       </c>
       <c r="G20" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="I20" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="J20" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="K20" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="L20" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="39" t="s">
+      <c r="N20" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="O20" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="P20" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="Q20" s="57">
+      <c r="R20" s="57">
         <v>890088</v>
       </c>
-      <c r="R20" s="60">
+      <c r="S20" s="60">
         <v>890088</v>
       </c>
-      <c r="S20" s="31" t="s">
+      <c r="T20" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="T20" s="23" t="s">
+      <c r="U20" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="U20" t="s">
-        <v>49</v>
-      </c>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="49" t="s">
+      <c r="V20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z20" s="20" t="s">
+      <c r="AA20" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA20" s="23" t="s">
+      <c r="AB20" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB20" s="49" t="s">
+      <c r="AC20" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC20" s="20" t="s">
+      <c r="AD20" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD20" s="24" t="s">
+      <c r="AE20" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="15">
+      <c r="AF20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN20" t="s">
-        <v>49</v>
-      </c>
       <c r="AO20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP20" t="s">
         <v>294</v>
       </c>
-      <c r="AP20" s="62" t="s">
+      <c r="AQ20" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ20" s="1" t="s">
+      <c r="AR20" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR20" s="62" t="s">
+      <c r="AS20" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS20" s="1" t="s">
+      <c r="AT20" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT20" t="s">
-        <v>49</v>
-      </c>
       <c r="AU20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV20" t="s">
         <v>8</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AW20" t="s">
         <v>9</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AX20" t="s">
         <v>10</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AY20" t="s">
         <v>77</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="AZ20" t="s">
         <v>11</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BA20" t="s">
         <v>287</v>
-      </c>
-      <c r="BB20">
-        <v>111</v>
       </c>
       <c r="BC20">
         <v>111</v>
       </c>
-      <c r="BJ20" s="29"/>
-      <c r="BK20" s="30"/>
+      <c r="BD20">
+        <v>111</v>
+      </c>
+      <c r="BK20" s="29"/>
       <c r="BL20" s="30"/>
-      <c r="BM20"/>
+      <c r="BM20" s="30"/>
       <c r="BN20"/>
-      <c r="BO20" s="30"/>
-      <c r="BT20"/>
+      <c r="BO20"/>
+      <c r="BP20" s="30"/>
       <c r="BU20"/>
       <c r="BV20"/>
       <c r="BW20"/>
@@ -5284,10 +5348,11 @@
       <c r="BY20"/>
       <c r="BZ20"/>
       <c r="CA20"/>
+      <c r="CB20"/>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
-        <f>COUNTIF(C21,"&lt;&gt;"&amp;"")+COUNTIF(BO21,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C21,"&lt;&gt;"&amp;"")+COUNTIF(BP21,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B21" s="27">
@@ -5300,124 +5365,126 @@
         <v>293</v>
       </c>
       <c r="G21" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H21" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="I21" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="J21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="K21" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="L21" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="M21" s="39" t="s">
+      <c r="N21" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="N21" s="39" t="s">
+      <c r="O21" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="O21" s="34" t="s">
+      <c r="P21" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="Q21" s="57">
+      <c r="R21" s="57">
         <v>922452</v>
       </c>
-      <c r="R21" s="60">
+      <c r="S21" s="60">
         <v>922452</v>
       </c>
-      <c r="S21" s="31" t="s">
+      <c r="T21" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="T21" s="23" t="s">
+      <c r="U21" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="U21" t="s">
-        <v>49</v>
-      </c>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="49" t="s">
+      <c r="V21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z21" s="20" t="s">
+      <c r="AA21" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA21" s="23" t="s">
+      <c r="AB21" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB21" s="49" t="s">
+      <c r="AC21" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC21" s="20" t="s">
+      <c r="AD21" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD21" s="24" t="s">
+      <c r="AE21" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="15">
+      <c r="AF21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN21" t="s">
-        <v>49</v>
-      </c>
       <c r="AO21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP21" t="s">
         <v>294</v>
       </c>
-      <c r="AP21" s="62" t="s">
+      <c r="AQ21" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ21" s="1" t="s">
+      <c r="AR21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR21" s="62" t="s">
+      <c r="AS21" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS21" s="1" t="s">
+      <c r="AT21" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT21" t="s">
-        <v>49</v>
-      </c>
       <c r="AU21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV21" t="s">
         <v>8</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AW21" t="s">
         <v>9</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AX21" t="s">
         <v>10</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="AY21" t="s">
         <v>77</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="AZ21" t="s">
         <v>11</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BA21" t="s">
         <v>287</v>
-      </c>
-      <c r="BB21">
-        <v>111</v>
       </c>
       <c r="BC21">
         <v>111</v>
       </c>
-      <c r="BJ21" s="29"/>
-      <c r="BK21" s="30"/>
+      <c r="BD21">
+        <v>111</v>
+      </c>
+      <c r="BK21" s="29"/>
       <c r="BL21" s="30"/>
-      <c r="BM21"/>
+      <c r="BM21" s="30"/>
       <c r="BN21"/>
-      <c r="BO21" s="30"/>
-      <c r="BT21"/>
+      <c r="BO21"/>
+      <c r="BP21" s="30"/>
       <c r="BU21"/>
       <c r="BV21"/>
       <c r="BW21"/>
@@ -5425,10 +5492,11 @@
       <c r="BY21"/>
       <c r="BZ21"/>
       <c r="CA21"/>
+      <c r="CB21"/>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
-        <f>COUNTIF(C22,"&lt;&gt;"&amp;"")+COUNTIF(BO22,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C22,"&lt;&gt;"&amp;"")+COUNTIF(BP22,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B22" s="27">
@@ -5441,124 +5509,126 @@
         <v>293</v>
       </c>
       <c r="G22" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H22" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="I22" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="J22" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="K22" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="L22" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="N22" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="O22" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="O22" s="34" t="s">
+      <c r="P22" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="Q22" s="57">
+      <c r="R22" s="57">
         <v>920466</v>
       </c>
-      <c r="R22" s="60">
+      <c r="S22" s="60">
         <v>920466</v>
       </c>
-      <c r="S22" s="31" t="s">
+      <c r="T22" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="T22" s="23" t="s">
+      <c r="U22" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="U22" t="s">
-        <v>49</v>
-      </c>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="49" t="s">
+      <c r="V22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z22" s="20" t="s">
+      <c r="AA22" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA22" s="23" t="s">
+      <c r="AB22" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB22" s="49" t="s">
+      <c r="AC22" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC22" s="20" t="s">
+      <c r="AD22" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD22" s="24" t="s">
+      <c r="AE22" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="15">
+      <c r="AF22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN22" t="s">
-        <v>49</v>
-      </c>
       <c r="AO22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP22" t="s">
         <v>294</v>
       </c>
-      <c r="AP22" s="62" t="s">
+      <c r="AQ22" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ22" s="1" t="s">
+      <c r="AR22" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR22" s="62" t="s">
+      <c r="AS22" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS22" s="1" t="s">
+      <c r="AT22" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT22" t="s">
-        <v>49</v>
-      </c>
       <c r="AU22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV22" t="s">
         <v>8</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AW22" t="s">
         <v>9</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>10</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>77</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>11</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>287</v>
-      </c>
-      <c r="BB22">
-        <v>111</v>
       </c>
       <c r="BC22">
         <v>111</v>
       </c>
-      <c r="BJ22" s="29"/>
-      <c r="BK22" s="30"/>
+      <c r="BD22">
+        <v>111</v>
+      </c>
+      <c r="BK22" s="29"/>
       <c r="BL22" s="30"/>
-      <c r="BM22"/>
+      <c r="BM22" s="30"/>
       <c r="BN22"/>
-      <c r="BO22" s="30"/>
-      <c r="BT22"/>
+      <c r="BO22"/>
+      <c r="BP22" s="30"/>
       <c r="BU22"/>
       <c r="BV22"/>
       <c r="BW22"/>
@@ -5566,10 +5636,11 @@
       <c r="BY22"/>
       <c r="BZ22"/>
       <c r="CA22"/>
+      <c r="CB22"/>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
-        <f>COUNTIF(C23,"&lt;&gt;"&amp;"")+COUNTIF(BO23,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C23,"&lt;&gt;"&amp;"")+COUNTIF(BP23,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B23" s="27">
@@ -5582,124 +5653,126 @@
         <v>293</v>
       </c>
       <c r="G23" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H23" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="I23" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="J23" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="K23" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="L23" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="M23" s="39" t="s">
+      <c r="N23" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="N23" s="39" t="s">
+      <c r="O23" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="O23" s="34" t="s">
+      <c r="P23" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="Q23" s="57">
+      <c r="R23" s="57">
         <v>3067661</v>
       </c>
-      <c r="R23" s="60">
+      <c r="S23" s="60">
         <v>3067661</v>
       </c>
-      <c r="S23" s="31" t="s">
+      <c r="T23" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="T23" s="23" t="s">
+      <c r="U23" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U23" t="s">
-        <v>49</v>
-      </c>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="49" t="s">
+      <c r="V23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z23" s="20" t="s">
+      <c r="AA23" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA23" s="23" t="s">
+      <c r="AB23" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB23" s="49" t="s">
+      <c r="AC23" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC23" s="20" t="s">
+      <c r="AD23" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD23" s="24" t="s">
+      <c r="AE23" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="15">
+      <c r="AF23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN23" t="s">
-        <v>49</v>
-      </c>
       <c r="AO23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP23" t="s">
         <v>294</v>
       </c>
-      <c r="AP23" s="62" t="s">
+      <c r="AQ23" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ23" s="1" t="s">
+      <c r="AR23" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR23" s="62" t="s">
+      <c r="AS23" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS23" s="1" t="s">
+      <c r="AT23" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT23" t="s">
-        <v>49</v>
-      </c>
       <c r="AU23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV23" t="s">
         <v>8</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AW23" t="s">
         <v>9</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
         <v>10</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AY23" t="s">
         <v>77</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>11</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>287</v>
-      </c>
-      <c r="BB23">
-        <v>111</v>
       </c>
       <c r="BC23">
         <v>111</v>
       </c>
-      <c r="BJ23" s="29"/>
-      <c r="BK23" s="30"/>
+      <c r="BD23">
+        <v>111</v>
+      </c>
+      <c r="BK23" s="29"/>
       <c r="BL23" s="30"/>
-      <c r="BM23"/>
+      <c r="BM23" s="30"/>
       <c r="BN23"/>
-      <c r="BO23" s="30"/>
-      <c r="BT23"/>
+      <c r="BO23"/>
+      <c r="BP23" s="30"/>
       <c r="BU23"/>
       <c r="BV23"/>
       <c r="BW23"/>
@@ -5707,10 +5780,11 @@
       <c r="BY23"/>
       <c r="BZ23"/>
       <c r="CA23"/>
+      <c r="CB23"/>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
-        <f>COUNTIF(C24,"&lt;&gt;"&amp;"")+COUNTIF(BO24,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C24,"&lt;&gt;"&amp;"")+COUNTIF(BP24,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B24" s="27">
@@ -5723,124 +5797,126 @@
         <v>293</v>
       </c>
       <c r="G24" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H24" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="I24" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="J24" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="K24" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="L24" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="39" t="s">
+      <c r="N24" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="O24" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="O24" s="34" t="s">
+      <c r="P24" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="Q24" s="57">
+      <c r="R24" s="57">
         <v>3009815</v>
       </c>
-      <c r="R24" s="60">
+      <c r="S24" s="60">
         <v>3009815</v>
       </c>
-      <c r="S24" s="31" t="s">
+      <c r="T24" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="T24" s="23" t="s">
+      <c r="U24" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="U24" t="s">
-        <v>49</v>
-      </c>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="49" t="s">
+      <c r="V24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z24" s="20" t="s">
+      <c r="AA24" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA24" s="23" t="s">
+      <c r="AB24" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB24" s="49" t="s">
+      <c r="AC24" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC24" s="20" t="s">
+      <c r="AD24" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD24" s="24" t="s">
+      <c r="AE24" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="15">
+      <c r="AF24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN24" t="s">
-        <v>49</v>
-      </c>
       <c r="AO24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP24" t="s">
         <v>294</v>
       </c>
-      <c r="AP24" s="62" t="s">
+      <c r="AQ24" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ24" s="1" t="s">
+      <c r="AR24" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR24" s="62" t="s">
+      <c r="AS24" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS24" s="1" t="s">
+      <c r="AT24" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT24" t="s">
-        <v>49</v>
-      </c>
       <c r="AU24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV24" t="s">
         <v>8</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AW24" t="s">
         <v>9</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AX24" t="s">
         <v>10</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AY24" t="s">
         <v>77</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="AZ24" t="s">
         <v>11</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BA24" t="s">
         <v>287</v>
-      </c>
-      <c r="BB24">
-        <v>111</v>
       </c>
       <c r="BC24">
         <v>111</v>
       </c>
-      <c r="BJ24" s="29"/>
-      <c r="BK24" s="30"/>
+      <c r="BD24">
+        <v>111</v>
+      </c>
+      <c r="BK24" s="29"/>
       <c r="BL24" s="30"/>
-      <c r="BM24"/>
+      <c r="BM24" s="30"/>
       <c r="BN24"/>
-      <c r="BO24" s="30"/>
-      <c r="BT24"/>
+      <c r="BO24"/>
+      <c r="BP24" s="30"/>
       <c r="BU24"/>
       <c r="BV24"/>
       <c r="BW24"/>
@@ -5848,10 +5924,11 @@
       <c r="BY24"/>
       <c r="BZ24"/>
       <c r="CA24"/>
+      <c r="CB24"/>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
-        <f>COUNTIF(C25,"&lt;&gt;"&amp;"")+COUNTIF(BO25,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C25,"&lt;&gt;"&amp;"")+COUNTIF(BP25,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B25" s="27">
@@ -5864,124 +5941,126 @@
         <v>293</v>
       </c>
       <c r="G25" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H25" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="I25" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="J25" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="K25" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="L25" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="N25" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="N25" s="39" t="s">
+      <c r="O25" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="O25" s="34" t="s">
+      <c r="P25" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="Q25" s="57">
+      <c r="R25" s="57">
         <v>3108035</v>
       </c>
-      <c r="R25" s="60">
+      <c r="S25" s="60">
         <v>3108035</v>
       </c>
-      <c r="S25" s="31" t="s">
+      <c r="T25" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="T25" s="23" t="s">
+      <c r="U25" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="U25" t="s">
-        <v>49</v>
-      </c>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="49" t="s">
+      <c r="V25" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z25" s="20" t="s">
+      <c r="AA25" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA25" s="23" t="s">
+      <c r="AB25" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB25" s="49" t="s">
+      <c r="AC25" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC25" s="20" t="s">
+      <c r="AD25" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD25" s="24" t="s">
+      <c r="AE25" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="15">
+      <c r="AF25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN25" t="s">
-        <v>49</v>
-      </c>
       <c r="AO25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP25" t="s">
         <v>294</v>
       </c>
-      <c r="AP25" s="62" t="s">
+      <c r="AQ25" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ25" s="1" t="s">
+      <c r="AR25" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR25" s="62" t="s">
+      <c r="AS25" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS25" s="1" t="s">
+      <c r="AT25" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT25" t="s">
-        <v>49</v>
-      </c>
       <c r="AU25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV25" t="s">
         <v>8</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AW25" t="s">
         <v>9</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>10</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AY25" t="s">
         <v>77</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>11</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>287</v>
-      </c>
-      <c r="BB25">
-        <v>111</v>
       </c>
       <c r="BC25">
         <v>111</v>
       </c>
-      <c r="BJ25" s="29"/>
-      <c r="BK25" s="30"/>
+      <c r="BD25">
+        <v>111</v>
+      </c>
+      <c r="BK25" s="29"/>
       <c r="BL25" s="30"/>
-      <c r="BM25"/>
+      <c r="BM25" s="30"/>
       <c r="BN25"/>
-      <c r="BO25" s="30"/>
-      <c r="BT25"/>
+      <c r="BO25"/>
+      <c r="BP25" s="30"/>
       <c r="BU25"/>
       <c r="BV25"/>
       <c r="BW25"/>
@@ -5989,10 +6068,11 @@
       <c r="BY25"/>
       <c r="BZ25"/>
       <c r="CA25"/>
+      <c r="CB25"/>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
-        <f>COUNTIF(C26,"&lt;&gt;"&amp;"")+COUNTIF(BO26,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C26,"&lt;&gt;"&amp;"")+COUNTIF(BP26,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B26" s="27">
@@ -6005,124 +6085,126 @@
         <v>293</v>
       </c>
       <c r="G26" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H26" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="I26" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="J26" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="K26" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="L26" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="M26" s="39" t="s">
+      <c r="N26" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="O26" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="O26" s="34" t="s">
+      <c r="P26" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="Q26" s="57">
+      <c r="R26" s="57">
         <v>3114749</v>
       </c>
-      <c r="R26" s="60">
+      <c r="S26" s="60">
         <v>3114749</v>
       </c>
-      <c r="S26" s="31" t="s">
+      <c r="T26" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="T26" s="23" t="s">
+      <c r="U26" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="U26" t="s">
-        <v>49</v>
-      </c>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="49" t="s">
+      <c r="V26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z26" s="20" t="s">
+      <c r="AA26" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA26" s="23" t="s">
+      <c r="AB26" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB26" s="49" t="s">
+      <c r="AC26" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC26" s="20" t="s">
+      <c r="AD26" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD26" s="24" t="s">
+      <c r="AE26" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="15">
+      <c r="AF26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN26" t="s">
-        <v>49</v>
-      </c>
       <c r="AO26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP26" t="s">
         <v>294</v>
       </c>
-      <c r="AP26" s="62" t="s">
+      <c r="AQ26" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ26" s="1" t="s">
+      <c r="AR26" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR26" s="62" t="s">
+      <c r="AS26" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS26" s="1" t="s">
+      <c r="AT26" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT26" t="s">
-        <v>49</v>
-      </c>
       <c r="AU26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV26" t="s">
         <v>8</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
         <v>9</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>10</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AY26" t="s">
         <v>77</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>11</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>287</v>
-      </c>
-      <c r="BB26">
-        <v>111</v>
       </c>
       <c r="BC26">
         <v>111</v>
       </c>
-      <c r="BJ26" s="29"/>
-      <c r="BK26" s="30"/>
+      <c r="BD26">
+        <v>111</v>
+      </c>
+      <c r="BK26" s="29"/>
       <c r="BL26" s="30"/>
-      <c r="BM26"/>
+      <c r="BM26" s="30"/>
       <c r="BN26"/>
-      <c r="BO26" s="30"/>
-      <c r="BT26"/>
+      <c r="BO26"/>
+      <c r="BP26" s="30"/>
       <c r="BU26"/>
       <c r="BV26"/>
       <c r="BW26"/>
@@ -6130,10 +6212,11 @@
       <c r="BY26"/>
       <c r="BZ26"/>
       <c r="CA26"/>
+      <c r="CB26"/>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
-        <f>COUNTIF(C27,"&lt;&gt;"&amp;"")+COUNTIF(BO27,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C27,"&lt;&gt;"&amp;"")+COUNTIF(BP27,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B27" s="27">
@@ -6146,124 +6229,126 @@
         <v>293</v>
       </c>
       <c r="G27" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H27" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="I27" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="J27" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="K27" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="L27" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="M27" s="39" t="s">
+      <c r="N27" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="N27" s="39" t="s">
+      <c r="O27" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="O27" s="34" t="s">
+      <c r="P27" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="Q27" s="57">
+      <c r="R27" s="57">
         <v>2634261</v>
       </c>
-      <c r="R27" s="60">
+      <c r="S27" s="60">
         <v>2634261</v>
       </c>
-      <c r="S27" s="31" t="s">
+      <c r="T27" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="T27" s="23" t="s">
+      <c r="U27" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="U27" t="s">
-        <v>49</v>
-      </c>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="49" t="s">
+      <c r="V27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z27" s="20" t="s">
+      <c r="AA27" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA27" s="23" t="s">
+      <c r="AB27" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB27" s="49" t="s">
+      <c r="AC27" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC27" s="20" t="s">
+      <c r="AD27" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD27" s="24" t="s">
+      <c r="AE27" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="15">
+      <c r="AF27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN27" t="s">
-        <v>49</v>
-      </c>
       <c r="AO27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP27" t="s">
         <v>294</v>
       </c>
-      <c r="AP27" s="62" t="s">
+      <c r="AQ27" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ27" s="1" t="s">
+      <c r="AR27" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR27" s="62" t="s">
+      <c r="AS27" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS27" s="1" t="s">
+      <c r="AT27" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT27" t="s">
-        <v>49</v>
-      </c>
       <c r="AU27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV27" t="s">
         <v>8</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AW27" t="s">
         <v>9</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AX27" t="s">
         <v>10</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="AY27" t="s">
         <v>77</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="AZ27" t="s">
         <v>11</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BA27" t="s">
         <v>287</v>
-      </c>
-      <c r="BB27">
-        <v>111</v>
       </c>
       <c r="BC27">
         <v>111</v>
       </c>
-      <c r="BJ27" s="29"/>
-      <c r="BK27" s="30"/>
+      <c r="BD27">
+        <v>111</v>
+      </c>
+      <c r="BK27" s="29"/>
       <c r="BL27" s="30"/>
-      <c r="BM27"/>
+      <c r="BM27" s="30"/>
       <c r="BN27"/>
-      <c r="BO27" s="30"/>
-      <c r="BT27"/>
+      <c r="BO27"/>
+      <c r="BP27" s="30"/>
       <c r="BU27"/>
       <c r="BV27"/>
       <c r="BW27"/>
@@ -6271,10 +6356,11 @@
       <c r="BY27"/>
       <c r="BZ27"/>
       <c r="CA27"/>
+      <c r="CB27"/>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
-        <f>COUNTIF(C28,"&lt;&gt;"&amp;"")+COUNTIF(BO28,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C28,"&lt;&gt;"&amp;"")+COUNTIF(BP28,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B28" s="27">
@@ -6287,124 +6373,126 @@
         <v>293</v>
       </c>
       <c r="G28" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="I28" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="J28" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="39" t="s">
+      <c r="K28" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="K28" s="39" t="s">
+      <c r="L28" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M28" s="39" t="s">
+      <c r="N28" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="N28" s="39" t="s">
+      <c r="O28" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="O28" s="34" t="s">
+      <c r="P28" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="Q28" s="57">
+      <c r="R28" s="57">
         <v>2572925</v>
       </c>
-      <c r="R28" s="60">
+      <c r="S28" s="60">
         <v>2572925</v>
       </c>
-      <c r="S28" s="31" t="s">
+      <c r="T28" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="T28" s="23" t="s">
+      <c r="U28" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="U28" t="s">
-        <v>49</v>
-      </c>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="49" t="s">
+      <c r="V28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z28" s="20" t="s">
+      <c r="AA28" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA28" s="23" t="s">
+      <c r="AB28" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB28" s="49" t="s">
+      <c r="AC28" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC28" s="20" t="s">
+      <c r="AD28" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD28" s="24" t="s">
+      <c r="AE28" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="15">
+      <c r="AF28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN28" t="s">
-        <v>49</v>
-      </c>
       <c r="AO28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP28" t="s">
         <v>294</v>
       </c>
-      <c r="AP28" s="62" t="s">
+      <c r="AQ28" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ28" s="1" t="s">
+      <c r="AR28" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR28" s="62" t="s">
+      <c r="AS28" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS28" s="1" t="s">
+      <c r="AT28" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT28" t="s">
-        <v>49</v>
-      </c>
       <c r="AU28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV28" t="s">
         <v>8</v>
       </c>
-      <c r="AV28" t="s">
+      <c r="AW28" t="s">
         <v>9</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AX28" t="s">
         <v>10</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="AY28" t="s">
         <v>77</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="AZ28" t="s">
         <v>11</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BA28" t="s">
         <v>287</v>
-      </c>
-      <c r="BB28">
-        <v>111</v>
       </c>
       <c r="BC28">
         <v>111</v>
       </c>
-      <c r="BJ28" s="29"/>
-      <c r="BK28" s="30"/>
+      <c r="BD28">
+        <v>111</v>
+      </c>
+      <c r="BK28" s="29"/>
       <c r="BL28" s="30"/>
-      <c r="BM28"/>
+      <c r="BM28" s="30"/>
       <c r="BN28"/>
-      <c r="BO28" s="30"/>
-      <c r="BT28"/>
+      <c r="BO28"/>
+      <c r="BP28" s="30"/>
       <c r="BU28"/>
       <c r="BV28"/>
       <c r="BW28"/>
@@ -6412,10 +6500,11 @@
       <c r="BY28"/>
       <c r="BZ28"/>
       <c r="CA28"/>
+      <c r="CB28"/>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
-        <f>COUNTIF(C29,"&lt;&gt;"&amp;"")+COUNTIF(BO29,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C29,"&lt;&gt;"&amp;"")+COUNTIF(BP29,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B29" s="27">
@@ -6428,124 +6517,126 @@
         <v>293</v>
       </c>
       <c r="G29" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H29" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="I29" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="J29" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="39" t="s">
+      <c r="K29" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="L29" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="N29" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="N29" s="39" t="s">
+      <c r="O29" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="O29" s="34" t="s">
+      <c r="P29" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="Q29" s="57">
+      <c r="R29" s="57">
         <v>2670122</v>
       </c>
-      <c r="R29" s="60">
+      <c r="S29" s="60">
         <v>2670122</v>
       </c>
-      <c r="S29" s="31" t="s">
+      <c r="T29" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="T29" s="23" t="s">
+      <c r="U29" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="U29" t="s">
-        <v>49</v>
-      </c>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="49" t="s">
+      <c r="V29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z29" s="20" t="s">
+      <c r="AA29" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA29" s="23" t="s">
+      <c r="AB29" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB29" s="49" t="s">
+      <c r="AC29" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC29" s="20" t="s">
+      <c r="AD29" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD29" s="24" t="s">
+      <c r="AE29" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="15">
+      <c r="AF29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN29" t="s">
-        <v>49</v>
-      </c>
       <c r="AO29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP29" t="s">
         <v>294</v>
       </c>
-      <c r="AP29" s="62" t="s">
+      <c r="AQ29" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ29" s="1" t="s">
+      <c r="AR29" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR29" s="62" t="s">
+      <c r="AS29" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS29" s="1" t="s">
+      <c r="AT29" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT29" t="s">
-        <v>49</v>
-      </c>
       <c r="AU29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV29" t="s">
         <v>8</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AW29" t="s">
         <v>9</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AX29" t="s">
         <v>10</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="AY29" t="s">
         <v>77</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="AZ29" t="s">
         <v>11</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BA29" t="s">
         <v>287</v>
-      </c>
-      <c r="BB29">
-        <v>111</v>
       </c>
       <c r="BC29">
         <v>111</v>
       </c>
-      <c r="BJ29" s="29"/>
-      <c r="BK29" s="30"/>
+      <c r="BD29">
+        <v>111</v>
+      </c>
+      <c r="BK29" s="29"/>
       <c r="BL29" s="30"/>
-      <c r="BM29"/>
+      <c r="BM29" s="30"/>
       <c r="BN29"/>
-      <c r="BO29" s="30"/>
-      <c r="BT29"/>
+      <c r="BO29"/>
+      <c r="BP29" s="30"/>
       <c r="BU29"/>
       <c r="BV29"/>
       <c r="BW29"/>
@@ -6553,10 +6644,11 @@
       <c r="BY29"/>
       <c r="BZ29"/>
       <c r="CA29"/>
+      <c r="CB29"/>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
-        <f>COUNTIF(C30,"&lt;&gt;"&amp;"")+COUNTIF(BO30,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C30,"&lt;&gt;"&amp;"")+COUNTIF(BP30,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B30" s="27">
@@ -6569,124 +6661,126 @@
         <v>293</v>
       </c>
       <c r="G30" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H30" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="I30" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="J30" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="39" t="s">
+      <c r="K30" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="K30" s="39" t="s">
+      <c r="L30" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="M30" s="39" t="s">
+      <c r="N30" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="N30" s="39" t="s">
+      <c r="O30" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="O30" s="34" t="s">
+      <c r="P30" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="Q30" s="57">
+      <c r="R30" s="57">
         <v>2666598</v>
       </c>
-      <c r="R30" s="60">
+      <c r="S30" s="60">
         <v>2666598</v>
       </c>
-      <c r="S30" s="31" t="s">
+      <c r="T30" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="T30" s="23" t="s">
+      <c r="U30" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="U30" t="s">
-        <v>49</v>
-      </c>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="49" t="s">
+      <c r="V30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z30" s="20" t="s">
+      <c r="AA30" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA30" s="23" t="s">
+      <c r="AB30" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB30" s="49" t="s">
+      <c r="AC30" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC30" s="20" t="s">
+      <c r="AD30" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD30" s="24" t="s">
+      <c r="AE30" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="15">
+      <c r="AF30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN30" t="s">
-        <v>49</v>
-      </c>
       <c r="AO30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP30" t="s">
         <v>294</v>
       </c>
-      <c r="AP30" s="62" t="s">
+      <c r="AQ30" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ30" s="1" t="s">
+      <c r="AR30" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR30" s="62" t="s">
+      <c r="AS30" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS30" s="1" t="s">
+      <c r="AT30" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT30" t="s">
-        <v>49</v>
-      </c>
       <c r="AU30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV30" t="s">
         <v>8</v>
       </c>
-      <c r="AV30" t="s">
+      <c r="AW30" t="s">
         <v>9</v>
       </c>
-      <c r="AW30" t="s">
+      <c r="AX30" t="s">
         <v>10</v>
       </c>
-      <c r="AX30" t="s">
+      <c r="AY30" t="s">
         <v>77</v>
       </c>
-      <c r="AY30" t="s">
+      <c r="AZ30" t="s">
         <v>11</v>
       </c>
-      <c r="AZ30" t="s">
+      <c r="BA30" t="s">
         <v>287</v>
-      </c>
-      <c r="BB30">
-        <v>111</v>
       </c>
       <c r="BC30">
         <v>111</v>
       </c>
-      <c r="BJ30" s="29"/>
-      <c r="BK30" s="30"/>
+      <c r="BD30">
+        <v>111</v>
+      </c>
+      <c r="BK30" s="29"/>
       <c r="BL30" s="30"/>
-      <c r="BM30"/>
+      <c r="BM30" s="30"/>
       <c r="BN30"/>
-      <c r="BO30" s="30"/>
-      <c r="BT30"/>
+      <c r="BO30"/>
+      <c r="BP30" s="30"/>
       <c r="BU30"/>
       <c r="BV30"/>
       <c r="BW30"/>
@@ -6694,10 +6788,11 @@
       <c r="BY30"/>
       <c r="BZ30"/>
       <c r="CA30"/>
+      <c r="CB30"/>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
-        <f>COUNTIF(C31,"&lt;&gt;"&amp;"")+COUNTIF(BO31,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C31,"&lt;&gt;"&amp;"")+COUNTIF(BP31,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B31" s="27">
@@ -6710,124 +6805,126 @@
         <v>293</v>
       </c>
       <c r="G31" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H31" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="I31" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="J31" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="K31" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="L31" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="M31" s="39" t="s">
+      <c r="N31" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="N31" s="39" t="s">
+      <c r="O31" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="O31" s="34" t="s">
+      <c r="P31" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="Q31" s="57">
+      <c r="R31" s="57">
         <v>1678404</v>
       </c>
-      <c r="R31" s="60">
+      <c r="S31" s="60">
         <v>1678404</v>
       </c>
-      <c r="S31" s="31" t="s">
+      <c r="T31" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="T31" s="23" t="s">
+      <c r="U31" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="U31" t="s">
-        <v>49</v>
-      </c>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="49" t="s">
+      <c r="V31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z31" s="20" t="s">
+      <c r="AA31" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA31" s="23" t="s">
+      <c r="AB31" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB31" s="49" t="s">
+      <c r="AC31" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC31" s="20" t="s">
+      <c r="AD31" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD31" s="24" t="s">
+      <c r="AE31" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="17"/>
-      <c r="AM31" s="15">
+      <c r="AF31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN31" t="s">
-        <v>49</v>
-      </c>
       <c r="AO31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP31" t="s">
         <v>294</v>
       </c>
-      <c r="AP31" s="62" t="s">
+      <c r="AQ31" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR31" s="62" t="s">
+      <c r="AS31" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT31" t="s">
-        <v>49</v>
-      </c>
       <c r="AU31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV31" t="s">
         <v>8</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AW31" t="s">
         <v>9</v>
       </c>
-      <c r="AW31" t="s">
+      <c r="AX31" t="s">
         <v>10</v>
       </c>
-      <c r="AX31" t="s">
+      <c r="AY31" t="s">
         <v>77</v>
       </c>
-      <c r="AY31" t="s">
+      <c r="AZ31" t="s">
         <v>11</v>
       </c>
-      <c r="AZ31" t="s">
+      <c r="BA31" t="s">
         <v>287</v>
-      </c>
-      <c r="BB31">
-        <v>111</v>
       </c>
       <c r="BC31">
         <v>111</v>
       </c>
-      <c r="BJ31" s="29"/>
-      <c r="BK31" s="30"/>
+      <c r="BD31">
+        <v>111</v>
+      </c>
+      <c r="BK31" s="29"/>
       <c r="BL31" s="30"/>
-      <c r="BM31"/>
+      <c r="BM31" s="30"/>
       <c r="BN31"/>
-      <c r="BO31" s="30"/>
-      <c r="BT31"/>
+      <c r="BO31"/>
+      <c r="BP31" s="30"/>
       <c r="BU31"/>
       <c r="BV31"/>
       <c r="BW31"/>
@@ -6835,10 +6932,11 @@
       <c r="BY31"/>
       <c r="BZ31"/>
       <c r="CA31"/>
+      <c r="CB31"/>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
-        <f>COUNTIF(C32,"&lt;&gt;"&amp;"")+COUNTIF(BO32,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C32,"&lt;&gt;"&amp;"")+COUNTIF(BP32,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B32" s="27">
@@ -6851,124 +6949,126 @@
         <v>293</v>
       </c>
       <c r="G32" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="40" t="s">
+      <c r="I32" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="J32" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="39" t="s">
+      <c r="K32" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="L32" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="M32" s="39" t="s">
+      <c r="N32" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="N32" s="39" t="s">
+      <c r="O32" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="O32" s="34" t="s">
+      <c r="P32" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="Q32" s="57">
+      <c r="R32" s="57">
         <v>1640506</v>
       </c>
-      <c r="R32" s="60">
+      <c r="S32" s="60">
         <v>1640506</v>
       </c>
-      <c r="S32" s="31" t="s">
+      <c r="T32" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="T32" s="23" t="s">
+      <c r="U32" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="U32" t="s">
-        <v>49</v>
-      </c>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="49" t="s">
+      <c r="V32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z32" s="20" t="s">
+      <c r="AA32" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA32" s="23" t="s">
+      <c r="AB32" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB32" s="49" t="s">
+      <c r="AC32" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC32" s="20" t="s">
+      <c r="AD32" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD32" s="24" t="s">
+      <c r="AE32" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="15">
+      <c r="AF32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN32" t="s">
-        <v>49</v>
-      </c>
       <c r="AO32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP32" t="s">
         <v>294</v>
       </c>
-      <c r="AP32" s="62" t="s">
+      <c r="AQ32" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ32" s="1" t="s">
+      <c r="AR32" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR32" s="62" t="s">
+      <c r="AS32" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS32" s="1" t="s">
+      <c r="AT32" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT32" t="s">
-        <v>49</v>
-      </c>
       <c r="AU32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV32" t="s">
         <v>8</v>
       </c>
-      <c r="AV32" t="s">
+      <c r="AW32" t="s">
         <v>9</v>
       </c>
-      <c r="AW32" t="s">
+      <c r="AX32" t="s">
         <v>10</v>
       </c>
-      <c r="AX32" t="s">
+      <c r="AY32" t="s">
         <v>77</v>
       </c>
-      <c r="AY32" t="s">
+      <c r="AZ32" t="s">
         <v>11</v>
       </c>
-      <c r="AZ32" t="s">
+      <c r="BA32" t="s">
         <v>287</v>
-      </c>
-      <c r="BB32">
-        <v>111</v>
       </c>
       <c r="BC32">
         <v>111</v>
       </c>
-      <c r="BJ32" s="29"/>
-      <c r="BK32" s="30"/>
+      <c r="BD32">
+        <v>111</v>
+      </c>
+      <c r="BK32" s="29"/>
       <c r="BL32" s="30"/>
-      <c r="BM32"/>
+      <c r="BM32" s="30"/>
       <c r="BN32"/>
-      <c r="BO32" s="30"/>
-      <c r="BT32"/>
+      <c r="BO32"/>
+      <c r="BP32" s="30"/>
       <c r="BU32"/>
       <c r="BV32"/>
       <c r="BW32"/>
@@ -6976,10 +7076,11 @@
       <c r="BY32"/>
       <c r="BZ32"/>
       <c r="CA32"/>
+      <c r="CB32"/>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
-        <f>COUNTIF(C33,"&lt;&gt;"&amp;"")+COUNTIF(BO33,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C33,"&lt;&gt;"&amp;"")+COUNTIF(BP33,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B33" s="27">
@@ -6992,124 +7093,126 @@
         <v>293</v>
       </c>
       <c r="G33" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H33" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="I33" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="J33" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="K33" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="L33" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="M33" s="39" t="s">
+      <c r="N33" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="N33" s="39" t="s">
+      <c r="O33" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="O33" s="34" t="s">
+      <c r="P33" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="Q33" s="57">
+      <c r="R33" s="57">
         <v>1702829</v>
       </c>
-      <c r="R33" s="60">
+      <c r="S33" s="60">
         <v>1702829</v>
       </c>
-      <c r="S33" s="32" t="s">
+      <c r="T33" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="T33" s="23" t="s">
+      <c r="U33" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="U33" t="s">
-        <v>49</v>
-      </c>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="49" t="s">
+      <c r="V33" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z33" s="20" t="s">
+      <c r="AA33" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA33" s="23" t="s">
+      <c r="AB33" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB33" s="49" t="s">
+      <c r="AC33" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC33" s="20" t="s">
+      <c r="AD33" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD33" s="24" t="s">
+      <c r="AE33" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="15">
+      <c r="AF33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN33" t="s">
-        <v>49</v>
-      </c>
       <c r="AO33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP33" t="s">
         <v>294</v>
       </c>
-      <c r="AP33" s="62" t="s">
+      <c r="AQ33" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ33" s="1" t="s">
+      <c r="AR33" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR33" s="62" t="s">
+      <c r="AS33" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS33" s="1" t="s">
+      <c r="AT33" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT33" t="s">
-        <v>49</v>
-      </c>
       <c r="AU33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV33" t="s">
         <v>8</v>
       </c>
-      <c r="AV33" t="s">
+      <c r="AW33" t="s">
         <v>9</v>
       </c>
-      <c r="AW33" t="s">
+      <c r="AX33" t="s">
         <v>10</v>
       </c>
-      <c r="AX33" t="s">
+      <c r="AY33" t="s">
         <v>77</v>
       </c>
-      <c r="AY33" t="s">
+      <c r="AZ33" t="s">
         <v>11</v>
       </c>
-      <c r="AZ33" t="s">
+      <c r="BA33" t="s">
         <v>287</v>
-      </c>
-      <c r="BB33">
-        <v>111</v>
       </c>
       <c r="BC33">
         <v>111</v>
       </c>
-      <c r="BJ33" s="29"/>
-      <c r="BK33" s="30"/>
+      <c r="BD33">
+        <v>111</v>
+      </c>
+      <c r="BK33" s="29"/>
       <c r="BL33" s="30"/>
-      <c r="BM33"/>
+      <c r="BM33" s="30"/>
       <c r="BN33"/>
-      <c r="BO33" s="30"/>
-      <c r="BT33"/>
+      <c r="BO33"/>
+      <c r="BP33" s="30"/>
       <c r="BU33"/>
       <c r="BV33"/>
       <c r="BW33"/>
@@ -7117,10 +7220,11 @@
       <c r="BY33"/>
       <c r="BZ33"/>
       <c r="CA33"/>
+      <c r="CB33"/>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
-        <f>COUNTIF(C34,"&lt;&gt;"&amp;"")+COUNTIF(BO34,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C34,"&lt;&gt;"&amp;"")+COUNTIF(BP34,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B34" s="27">
@@ -7133,124 +7237,126 @@
         <v>293</v>
       </c>
       <c r="G34" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H34" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="40" t="s">
+      <c r="I34" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="J34" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J34" s="39" t="s">
+      <c r="K34" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="L34" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="N34" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="N34" s="39" t="s">
+      <c r="O34" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="O34" s="34" t="s">
+      <c r="P34" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="Q34" s="57">
+      <c r="R34" s="57">
         <v>1699601</v>
       </c>
-      <c r="R34" s="60">
+      <c r="S34" s="60">
         <v>1699601</v>
       </c>
-      <c r="S34" s="31" t="s">
+      <c r="T34" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="T34" s="23" t="s">
+      <c r="U34" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="U34" t="s">
-        <v>49</v>
-      </c>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="49" t="s">
+      <c r="V34" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z34" s="20" t="s">
+      <c r="AA34" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA34" s="23" t="s">
+      <c r="AB34" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB34" s="49" t="s">
+      <c r="AC34" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC34" s="20" t="s">
+      <c r="AD34" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD34" s="24" t="s">
+      <c r="AE34" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="15">
+      <c r="AF34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN34" t="s">
-        <v>49</v>
-      </c>
       <c r="AO34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP34" t="s">
         <v>294</v>
       </c>
-      <c r="AP34" s="62" t="s">
+      <c r="AQ34" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ34" s="1" t="s">
+      <c r="AR34" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR34" s="62" t="s">
+      <c r="AS34" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS34" s="1" t="s">
+      <c r="AT34" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT34" t="s">
-        <v>49</v>
-      </c>
       <c r="AU34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV34" t="s">
         <v>8</v>
       </c>
-      <c r="AV34" t="s">
+      <c r="AW34" t="s">
         <v>9</v>
       </c>
-      <c r="AW34" t="s">
+      <c r="AX34" t="s">
         <v>10</v>
       </c>
-      <c r="AX34" t="s">
+      <c r="AY34" t="s">
         <v>77</v>
       </c>
-      <c r="AY34" t="s">
+      <c r="AZ34" t="s">
         <v>11</v>
       </c>
-      <c r="AZ34" t="s">
+      <c r="BA34" t="s">
         <v>287</v>
-      </c>
-      <c r="BB34">
-        <v>111</v>
       </c>
       <c r="BC34">
         <v>111</v>
       </c>
-      <c r="BJ34" s="29"/>
-      <c r="BK34" s="30"/>
+      <c r="BD34">
+        <v>111</v>
+      </c>
+      <c r="BK34" s="29"/>
       <c r="BL34" s="30"/>
-      <c r="BM34"/>
+      <c r="BM34" s="30"/>
       <c r="BN34"/>
-      <c r="BO34" s="30"/>
-      <c r="BT34"/>
+      <c r="BO34"/>
+      <c r="BP34" s="30"/>
       <c r="BU34"/>
       <c r="BV34"/>
       <c r="BW34"/>
@@ -7258,10 +7364,11 @@
       <c r="BY34"/>
       <c r="BZ34"/>
       <c r="CA34"/>
+      <c r="CB34"/>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
-        <f>COUNTIF(C35,"&lt;&gt;"&amp;"")+COUNTIF(BO35,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C35,"&lt;&gt;"&amp;"")+COUNTIF(BP35,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B35" s="27">
@@ -7274,124 +7381,126 @@
         <v>293</v>
       </c>
       <c r="G35" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H35" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="40" t="s">
+      <c r="I35" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="J35" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="39" t="s">
+      <c r="K35" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="K35" s="39" t="s">
+      <c r="L35" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="M35" s="39" t="s">
+      <c r="N35" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="N35" s="39" t="s">
+      <c r="O35" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="O35" s="34" t="s">
+      <c r="P35" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="Q35" s="57">
+      <c r="R35" s="57">
         <v>1677838</v>
       </c>
-      <c r="R35" s="60">
+      <c r="S35" s="60">
         <v>1677838</v>
       </c>
-      <c r="S35" s="31" t="s">
+      <c r="T35" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="T35" s="23" t="s">
+      <c r="U35" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="U35" t="s">
-        <v>49</v>
-      </c>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="49" t="s">
+      <c r="V35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z35" s="20" t="s">
+      <c r="AA35" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA35" s="23" t="s">
+      <c r="AB35" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB35" s="49" t="s">
+      <c r="AC35" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC35" s="20" t="s">
+      <c r="AD35" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD35" s="24" t="s">
+      <c r="AE35" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ35" s="19"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="15">
+      <c r="AF35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN35" t="s">
-        <v>49</v>
-      </c>
       <c r="AO35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP35" t="s">
         <v>294</v>
       </c>
-      <c r="AP35" s="62" t="s">
+      <c r="AQ35" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ35" s="1" t="s">
+      <c r="AR35" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR35" s="62" t="s">
+      <c r="AS35" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS35" s="1" t="s">
+      <c r="AT35" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT35" t="s">
-        <v>49</v>
-      </c>
       <c r="AU35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV35" t="s">
         <v>8</v>
       </c>
-      <c r="AV35" t="s">
+      <c r="AW35" t="s">
         <v>9</v>
       </c>
-      <c r="AW35" t="s">
+      <c r="AX35" t="s">
         <v>10</v>
       </c>
-      <c r="AX35" t="s">
+      <c r="AY35" t="s">
         <v>77</v>
       </c>
-      <c r="AY35" t="s">
+      <c r="AZ35" t="s">
         <v>11</v>
       </c>
-      <c r="AZ35" t="s">
+      <c r="BA35" t="s">
         <v>287</v>
-      </c>
-      <c r="BB35">
-        <v>111</v>
       </c>
       <c r="BC35">
         <v>111</v>
       </c>
-      <c r="BJ35" s="29"/>
-      <c r="BK35" s="30"/>
+      <c r="BD35">
+        <v>111</v>
+      </c>
+      <c r="BK35" s="29"/>
       <c r="BL35" s="30"/>
-      <c r="BM35"/>
+      <c r="BM35" s="30"/>
       <c r="BN35"/>
-      <c r="BO35" s="30"/>
-      <c r="BT35"/>
+      <c r="BO35"/>
+      <c r="BP35" s="30"/>
       <c r="BU35"/>
       <c r="BV35"/>
       <c r="BW35"/>
@@ -7399,10 +7508,11 @@
       <c r="BY35"/>
       <c r="BZ35"/>
       <c r="CA35"/>
+      <c r="CB35"/>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
-        <f>COUNTIF(C36,"&lt;&gt;"&amp;"")+COUNTIF(BO36,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C36,"&lt;&gt;"&amp;"")+COUNTIF(BP36,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B36" s="27">
@@ -7415,124 +7525,126 @@
         <v>293</v>
       </c>
       <c r="G36" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H36" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="I36" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="J36" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J36" s="39" t="s">
+      <c r="K36" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="L36" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="M36" s="39" t="s">
+      <c r="N36" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="N36" s="39" t="s">
+      <c r="O36" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="O36" s="34" t="s">
+      <c r="P36" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="Q36" s="57">
+      <c r="R36" s="57">
         <v>1637501</v>
       </c>
-      <c r="R36" s="60">
+      <c r="S36" s="60">
         <v>1637501</v>
       </c>
-      <c r="S36" s="31" t="s">
+      <c r="T36" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="T36" s="23" t="s">
+      <c r="U36" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="U36" t="s">
-        <v>49</v>
-      </c>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="49" t="s">
+      <c r="V36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z36" s="20" t="s">
+      <c r="AA36" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA36" s="23" t="s">
+      <c r="AB36" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB36" s="49" t="s">
+      <c r="AC36" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC36" s="20" t="s">
+      <c r="AD36" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD36" s="24" t="s">
+      <c r="AE36" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="15">
+      <c r="AF36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK36" s="19"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN36" t="s">
-        <v>49</v>
-      </c>
       <c r="AO36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP36" t="s">
         <v>294</v>
       </c>
-      <c r="AP36" s="62" t="s">
+      <c r="AQ36" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ36" s="1" t="s">
+      <c r="AR36" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR36" s="62" t="s">
+      <c r="AS36" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS36" s="1" t="s">
+      <c r="AT36" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT36" t="s">
-        <v>49</v>
-      </c>
       <c r="AU36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV36" t="s">
         <v>8</v>
       </c>
-      <c r="AV36" t="s">
+      <c r="AW36" t="s">
         <v>9</v>
       </c>
-      <c r="AW36" t="s">
+      <c r="AX36" t="s">
         <v>10</v>
       </c>
-      <c r="AX36" t="s">
+      <c r="AY36" t="s">
         <v>77</v>
       </c>
-      <c r="AY36" t="s">
+      <c r="AZ36" t="s">
         <v>11</v>
       </c>
-      <c r="AZ36" t="s">
+      <c r="BA36" t="s">
         <v>287</v>
-      </c>
-      <c r="BB36">
-        <v>111</v>
       </c>
       <c r="BC36">
         <v>111</v>
       </c>
-      <c r="BJ36" s="29"/>
-      <c r="BK36" s="30"/>
+      <c r="BD36">
+        <v>111</v>
+      </c>
+      <c r="BK36" s="29"/>
       <c r="BL36" s="30"/>
-      <c r="BM36"/>
+      <c r="BM36" s="30"/>
       <c r="BN36"/>
-      <c r="BO36" s="30"/>
-      <c r="BT36"/>
+      <c r="BO36"/>
+      <c r="BP36" s="30"/>
       <c r="BU36"/>
       <c r="BV36"/>
       <c r="BW36"/>
@@ -7540,10 +7652,11 @@
       <c r="BY36"/>
       <c r="BZ36"/>
       <c r="CA36"/>
+      <c r="CB36"/>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
-        <f>COUNTIF(C37,"&lt;&gt;"&amp;"")+COUNTIF(BO37,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C37,"&lt;&gt;"&amp;"")+COUNTIF(BP37,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B37" s="27">
@@ -7558,125 +7671,127 @@
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
       <c r="G37" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H37" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="I37" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="J37" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="39" t="s">
+      <c r="K37" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="K37" s="39" t="s">
+      <c r="L37" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="M37" s="39" t="s">
+      <c r="N37" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="N37" s="39" t="s">
+      <c r="O37" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="O37" s="34" t="s">
+      <c r="P37" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="Q37" s="58">
+      <c r="R37" s="58">
         <v>1699067</v>
       </c>
-      <c r="R37" s="61">
+      <c r="S37" s="61">
         <v>1699067</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>249</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>285</v>
       </c>
-      <c r="U37" t="s">
-        <v>49</v>
-      </c>
-      <c r="V37"/>
+      <c r="V37" t="s">
+        <v>49</v>
+      </c>
       <c r="W37"/>
-      <c r="Y37" s="49" t="s">
+      <c r="X37"/>
+      <c r="Z37" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z37" s="20" t="s">
+      <c r="AA37" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA37" s="23" t="s">
+      <c r="AB37" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB37" s="49" t="s">
+      <c r="AC37" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC37" s="20" t="s">
+      <c r="AD37" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD37" s="24" t="s">
+      <c r="AE37" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG37"/>
-      <c r="AI37"/>
+      <c r="AF37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH37"/>
       <c r="AJ37"/>
-      <c r="AL37"/>
-      <c r="AM37" s="15">
+      <c r="AK37"/>
+      <c r="AM37"/>
+      <c r="AN37" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN37" t="s">
-        <v>49</v>
-      </c>
       <c r="AO37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP37" t="s">
         <v>294</v>
       </c>
-      <c r="AP37" s="62" t="s">
+      <c r="AQ37" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ37" s="1" t="s">
+      <c r="AR37" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR37" s="62" t="s">
+      <c r="AS37" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS37" s="1" t="s">
+      <c r="AT37" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT37" t="s">
-        <v>49</v>
-      </c>
       <c r="AU37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV37" t="s">
         <v>8</v>
       </c>
-      <c r="AV37" t="s">
+      <c r="AW37" t="s">
         <v>9</v>
       </c>
-      <c r="AW37" t="s">
+      <c r="AX37" t="s">
         <v>10</v>
       </c>
-      <c r="AX37" t="s">
+      <c r="AY37" t="s">
         <v>77</v>
       </c>
-      <c r="AY37" t="s">
+      <c r="AZ37" t="s">
         <v>11</v>
       </c>
-      <c r="AZ37" t="s">
+      <c r="BA37" t="s">
         <v>287</v>
-      </c>
-      <c r="BB37">
-        <v>111</v>
       </c>
       <c r="BC37">
         <v>111</v>
       </c>
-      <c r="BK37"/>
+      <c r="BD37">
+        <v>111</v>
+      </c>
       <c r="BL37"/>
       <c r="BM37"/>
       <c r="BN37"/>
       <c r="BO37"/>
-      <c r="BT37"/>
+      <c r="BP37"/>
       <c r="BU37"/>
       <c r="BV37"/>
       <c r="BW37"/>
@@ -7684,10 +7799,11 @@
       <c r="BY37"/>
       <c r="BZ37"/>
       <c r="CA37"/>
+      <c r="CB37"/>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
-        <f>COUNTIF(C38,"&lt;&gt;"&amp;"")+COUNTIF(BO38,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(C38,"&lt;&gt;"&amp;"")+COUNTIF(BP38,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B38" s="27">
@@ -7702,125 +7818,127 @@
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
       <c r="G38" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H38" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H38" s="40" t="s">
+      <c r="I38" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="J38" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J38" s="39" t="s">
+      <c r="K38" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="39" t="s">
+      <c r="L38" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="M38" s="39" t="s">
+      <c r="N38" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="N38" s="39" t="s">
+      <c r="O38" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="O38" s="34" t="s">
+      <c r="P38" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="Q38" s="58">
+      <c r="R38" s="58">
         <v>1691153</v>
       </c>
-      <c r="R38" s="61">
+      <c r="S38" s="61">
         <v>1691153</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>250</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>286</v>
       </c>
-      <c r="U38" t="s">
-        <v>49</v>
-      </c>
-      <c r="V38"/>
+      <c r="V38" t="s">
+        <v>49</v>
+      </c>
       <c r="W38"/>
-      <c r="Y38" s="49" t="s">
+      <c r="X38"/>
+      <c r="Z38" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="Z38" s="20" t="s">
+      <c r="AA38" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA38" s="23" t="s">
+      <c r="AB38" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AB38" s="49" t="s">
+      <c r="AC38" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="AC38" s="20" t="s">
+      <c r="AD38" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD38" s="24" t="s">
+      <c r="AE38" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="AE38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG38"/>
-      <c r="AI38"/>
+      <c r="AF38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH38"/>
       <c r="AJ38"/>
-      <c r="AL38"/>
-      <c r="AM38" s="15">
+      <c r="AK38"/>
+      <c r="AM38"/>
+      <c r="AN38" s="15">
         <v>0.25</v>
       </c>
-      <c r="AN38" t="s">
-        <v>49</v>
-      </c>
       <c r="AO38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP38" t="s">
         <v>294</v>
       </c>
-      <c r="AP38" s="62" t="s">
+      <c r="AQ38" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="AQ38" s="1" t="s">
+      <c r="AR38" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AR38" s="62" t="s">
+      <c r="AS38" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="AS38" s="1" t="s">
+      <c r="AT38" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT38" t="s">
-        <v>49</v>
-      </c>
       <c r="AU38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV38" t="s">
         <v>8</v>
       </c>
-      <c r="AV38" t="s">
+      <c r="AW38" t="s">
         <v>9</v>
       </c>
-      <c r="AW38" t="s">
+      <c r="AX38" t="s">
         <v>10</v>
       </c>
-      <c r="AX38" t="s">
+      <c r="AY38" t="s">
         <v>77</v>
       </c>
-      <c r="AY38" t="s">
+      <c r="AZ38" t="s">
         <v>11</v>
       </c>
-      <c r="AZ38" t="s">
+      <c r="BA38" t="s">
         <v>287</v>
-      </c>
-      <c r="BB38">
-        <v>111</v>
       </c>
       <c r="BC38">
         <v>111</v>
       </c>
-      <c r="BK38"/>
+      <c r="BD38">
+        <v>111</v>
+      </c>
       <c r="BL38"/>
       <c r="BM38"/>
       <c r="BN38"/>
       <c r="BO38"/>
-      <c r="BT38"/>
+      <c r="BP38"/>
       <c r="BU38"/>
       <c r="BV38"/>
       <c r="BW38"/>
@@ -7828,34 +7946,34 @@
       <c r="BY38"/>
       <c r="BZ38"/>
       <c r="CA38"/>
+      <c r="CB38"/>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="D39"/>
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
-      <c r="H39" s="39"/>
-      <c r="V39"/>
+      <c r="I39" s="39"/>
       <c r="W39"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39"/>
+      <c r="X39"/>
+      <c r="Z39" s="2"/>
       <c r="AA39"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39"/>
+      <c r="AB39"/>
+      <c r="AC39" s="2"/>
       <c r="AD39"/>
-      <c r="AG39"/>
-      <c r="AI39"/>
+      <c r="AE39"/>
+      <c r="AH39"/>
       <c r="AJ39"/>
-      <c r="AL39"/>
-      <c r="AM39" s="15"/>
-      <c r="AQ39"/>
-      <c r="AS39"/>
-      <c r="BK39"/>
+      <c r="AK39"/>
+      <c r="AM39"/>
+      <c r="AN39" s="15"/>
+      <c r="AR39"/>
+      <c r="AT39"/>
       <c r="BL39"/>
       <c r="BM39"/>
       <c r="BN39"/>
       <c r="BO39"/>
-      <c r="BT39"/>
+      <c r="BP39"/>
       <c r="BU39"/>
       <c r="BV39"/>
       <c r="BW39"/>
@@ -7863,34 +7981,34 @@
       <c r="BY39"/>
       <c r="BZ39"/>
       <c r="CA39"/>
+      <c r="CB39"/>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="D40"/>
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
-      <c r="H40" s="39"/>
-      <c r="V40"/>
+      <c r="I40" s="39"/>
       <c r="W40"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40"/>
+      <c r="X40"/>
+      <c r="Z40" s="2"/>
       <c r="AA40"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40"/>
+      <c r="AB40"/>
+      <c r="AC40" s="2"/>
       <c r="AD40"/>
-      <c r="AG40"/>
-      <c r="AI40"/>
+      <c r="AE40"/>
+      <c r="AH40"/>
       <c r="AJ40"/>
-      <c r="AL40"/>
-      <c r="AM40" s="15"/>
-      <c r="AQ40"/>
-      <c r="AS40"/>
-      <c r="BK40"/>
+      <c r="AK40"/>
+      <c r="AM40"/>
+      <c r="AN40" s="15"/>
+      <c r="AR40"/>
+      <c r="AT40"/>
       <c r="BL40"/>
       <c r="BM40"/>
       <c r="BN40"/>
       <c r="BO40"/>
-      <c r="BT40"/>
+      <c r="BP40"/>
       <c r="BU40"/>
       <c r="BV40"/>
       <c r="BW40"/>
@@ -7898,93 +8016,94 @@
       <c r="BY40"/>
       <c r="BZ40"/>
       <c r="CA40"/>
+      <c r="CB40"/>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM41" s="15"/>
+    <row r="41" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN41" s="15"/>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM42" s="15"/>
+    <row r="42" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN42" s="15"/>
     </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM43" s="15"/>
+    <row r="43" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN43" s="15"/>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM44" s="15"/>
+    <row r="44" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN44" s="15"/>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM45" s="15"/>
+    <row r="45" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN45" s="15"/>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM46" s="15"/>
+    <row r="46" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN46" s="15"/>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM47" s="15"/>
+    <row r="47" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN47" s="15"/>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AM48" s="15"/>
+    <row r="48" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="AN48" s="15"/>
     </row>
-    <row r="49" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM49" s="15"/>
+    <row r="49" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN49" s="15"/>
     </row>
-    <row r="50" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM50" s="15"/>
+    <row r="50" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN50" s="15"/>
     </row>
-    <row r="51" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM51" s="15"/>
+    <row r="51" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN51" s="15"/>
     </row>
-    <row r="52" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM52" s="15"/>
+    <row r="52" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN52" s="15"/>
     </row>
-    <row r="53" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM53" s="15"/>
+    <row r="53" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN53" s="15"/>
     </row>
-    <row r="54" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM54" s="15"/>
+    <row r="54" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN54" s="15"/>
     </row>
-    <row r="55" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM55" s="15"/>
+    <row r="55" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN55" s="15"/>
     </row>
-    <row r="56" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM56" s="15"/>
+    <row r="56" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN56" s="15"/>
     </row>
-    <row r="57" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM57" s="15"/>
+    <row r="57" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN57" s="15"/>
     </row>
-    <row r="58" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM58" s="15"/>
+    <row r="58" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN58" s="15"/>
     </row>
-    <row r="59" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM59" s="15"/>
+    <row r="59" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN59" s="15"/>
     </row>
-    <row r="60" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM60" s="15"/>
+    <row r="60" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN60" s="15"/>
     </row>
-    <row r="61" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM61" s="15"/>
+    <row r="61" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN61" s="15"/>
     </row>
-    <row r="62" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM62" s="15"/>
+    <row r="62" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN62" s="15"/>
     </row>
-    <row r="63" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM63" s="15"/>
+    <row r="63" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN63" s="15"/>
     </row>
-    <row r="64" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM64" s="15"/>
+    <row r="64" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN64" s="15"/>
     </row>
-    <row r="65" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM65" s="15"/>
+    <row r="65" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN65" s="15"/>
     </row>
-    <row r="66" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM66" s="15"/>
+    <row r="66" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN66" s="15"/>
     </row>
-    <row r="67" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM67" s="15"/>
+    <row r="67" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN67" s="15"/>
     </row>
-    <row r="68" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM68" s="15"/>
+    <row r="68" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN68" s="15"/>
     </row>
-    <row r="69" spans="39:39" x14ac:dyDescent="0.2">
-      <c r="AM69" s="15"/>
+    <row r="69" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN69" s="15"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -8030,14 +8149,14 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="BE1:BH1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BK1:BP1"/>
+    <mergeCell ref="BR1:BS1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="AL3:AL36">
+  <conditionalFormatting sqref="AM3:AM36">
     <cfRule type="containsBlanks" dxfId="4" priority="9" stopIfTrue="1">
-      <formula>LEN(TRIM(AL3))=0</formula>
+      <formula>LEN(TRIM(AM3))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
       <formula>0.02</formula>
@@ -8052,17 +8171,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:R36">
+  <conditionalFormatting sqref="R3:S36">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>2000</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$Q3&lt;&gt;$R3</formula>
+      <formula>$R3&lt;&gt;$S3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:R36 Q41:R1048576">
+  <conditionalFormatting sqref="R2:S36 R41:S1048576">
     <cfRule type="containsBlanks" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>LEN(TRIM(Q2))=0</formula>
+      <formula>LEN(TRIM(R2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/excel/projects/micans_v6_exp1_plexed/metadata_plexed.xlsx
+++ b/metadata/excel/projects/micans_v6_exp1_plexed/metadata_plexed.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="312">
   <si>
     <t>Country</t>
   </si>
@@ -1051,6 +1051,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Multiplexed samples recieved from BaseSpace by Micans on 15th of May 2016 (Experiment 1)</t>
   </si>
 </sst>
 </file>
@@ -2380,10 +2383,10 @@
   </sheetPr>
   <dimension ref="A1:CD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2772,7 +2775,7 @@
     </row>
     <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
-        <f>COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BQ3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="A3:A38" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BQ3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="27">
@@ -2829,7 +2832,12 @@
       <c r="W3" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="1"/>
+      <c r="Y3" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA3" s="49" t="s">
         <v>152</v>
       </c>
@@ -2919,7 +2927,7 @@
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <f>COUNTIF(D4,"&lt;&gt;"&amp;"")+COUNTIF(BQ4,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4" s="27">
@@ -2976,7 +2984,12 @@
       <c r="W4" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="1"/>
+      <c r="Y4" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA4" s="49" t="s">
         <v>152</v>
       </c>
@@ -3066,7 +3079,7 @@
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
-        <f>COUNTIF(D5,"&lt;&gt;"&amp;"")+COUNTIF(BQ5,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B5" s="27">
@@ -3123,7 +3136,12 @@
       <c r="W5" t="s">
         <v>49</v>
       </c>
-      <c r="Z5" s="1"/>
+      <c r="Y5" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA5" s="49" t="s">
         <v>152</v>
       </c>
@@ -3213,7 +3231,7 @@
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
-        <f>COUNTIF(D6,"&lt;&gt;"&amp;"")+COUNTIF(BQ6,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B6" s="27">
@@ -3270,7 +3288,12 @@
       <c r="W6" t="s">
         <v>49</v>
       </c>
-      <c r="Z6" s="1"/>
+      <c r="Y6" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA6" s="49" t="s">
         <v>152</v>
       </c>
@@ -3360,7 +3383,7 @@
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
-        <f>COUNTIF(D7,"&lt;&gt;"&amp;"")+COUNTIF(BQ7,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="27">
@@ -3417,7 +3440,12 @@
       <c r="W7" t="s">
         <v>49</v>
       </c>
-      <c r="Z7" s="1"/>
+      <c r="Y7" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA7" s="49" t="s">
         <v>152</v>
       </c>
@@ -3507,7 +3535,7 @@
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
-        <f>COUNTIF(D8,"&lt;&gt;"&amp;"")+COUNTIF(BQ8,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B8" s="27">
@@ -3564,7 +3592,12 @@
       <c r="W8" t="s">
         <v>49</v>
       </c>
-      <c r="Z8" s="1"/>
+      <c r="Y8" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA8" s="49" t="s">
         <v>152</v>
       </c>
@@ -3654,7 +3687,7 @@
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
-        <f>COUNTIF(D9,"&lt;&gt;"&amp;"")+COUNTIF(BQ9,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B9" s="27">
@@ -3711,7 +3744,12 @@
       <c r="W9" t="s">
         <v>49</v>
       </c>
-      <c r="Z9" s="1"/>
+      <c r="Y9" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA9" s="49" t="s">
         <v>152</v>
       </c>
@@ -3801,7 +3839,7 @@
     </row>
     <row r="10" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
-        <f>COUNTIF(D10,"&lt;&gt;"&amp;"")+COUNTIF(BQ10,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B10" s="27">
@@ -3858,7 +3896,12 @@
       <c r="W10" t="s">
         <v>49</v>
       </c>
-      <c r="Z10" s="1"/>
+      <c r="Y10" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA10" s="49" t="s">
         <v>152</v>
       </c>
@@ -3948,7 +3991,7 @@
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
-        <f>COUNTIF(D11,"&lt;&gt;"&amp;"")+COUNTIF(BQ11,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B11" s="27">
@@ -4005,7 +4048,12 @@
       <c r="W11" t="s">
         <v>49</v>
       </c>
-      <c r="Z11" s="1"/>
+      <c r="Y11" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA11" s="49" t="s">
         <v>152</v>
       </c>
@@ -4095,7 +4143,7 @@
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
-        <f>COUNTIF(D12,"&lt;&gt;"&amp;"")+COUNTIF(BQ12,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B12" s="27">
@@ -4152,7 +4200,12 @@
       <c r="W12" t="s">
         <v>49</v>
       </c>
-      <c r="Z12" s="1"/>
+      <c r="Y12" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA12" s="49" t="s">
         <v>152</v>
       </c>
@@ -4242,7 +4295,7 @@
     </row>
     <row r="13" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
-        <f>COUNTIF(D13,"&lt;&gt;"&amp;"")+COUNTIF(BQ13,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B13" s="27">
@@ -4299,7 +4352,12 @@
       <c r="W13" t="s">
         <v>49</v>
       </c>
-      <c r="Z13" s="1"/>
+      <c r="Y13" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA13" s="49" t="s">
         <v>152</v>
       </c>
@@ -4389,7 +4447,7 @@
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
-        <f>COUNTIF(D14,"&lt;&gt;"&amp;"")+COUNTIF(BQ14,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B14" s="27">
@@ -4446,7 +4504,12 @@
       <c r="W14" t="s">
         <v>49</v>
       </c>
-      <c r="Z14" s="1"/>
+      <c r="Y14" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA14" s="49" t="s">
         <v>152</v>
       </c>
@@ -4536,7 +4599,7 @@
     </row>
     <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
-        <f>COUNTIF(D15,"&lt;&gt;"&amp;"")+COUNTIF(BQ15,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B15" s="27">
@@ -4593,7 +4656,12 @@
       <c r="W15" t="s">
         <v>49</v>
       </c>
-      <c r="Z15" s="1"/>
+      <c r="Y15" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA15" s="49" t="s">
         <v>152</v>
       </c>
@@ -4683,7 +4751,7 @@
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
-        <f>COUNTIF(D16,"&lt;&gt;"&amp;"")+COUNTIF(BQ16,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B16" s="27">
@@ -4740,7 +4808,12 @@
       <c r="W16" t="s">
         <v>49</v>
       </c>
-      <c r="Z16" s="1"/>
+      <c r="Y16" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA16" s="49" t="s">
         <v>152</v>
       </c>
@@ -4830,7 +4903,7 @@
     </row>
     <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
-        <f>COUNTIF(D17,"&lt;&gt;"&amp;"")+COUNTIF(BQ17,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B17" s="27">
@@ -4887,7 +4960,12 @@
       <c r="W17" t="s">
         <v>49</v>
       </c>
-      <c r="Z17" s="1"/>
+      <c r="Y17" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA17" s="49" t="s">
         <v>152</v>
       </c>
@@ -4977,7 +5055,7 @@
     </row>
     <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
-        <f>COUNTIF(D18,"&lt;&gt;"&amp;"")+COUNTIF(BQ18,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B18" s="27">
@@ -5034,7 +5112,12 @@
       <c r="W18" t="s">
         <v>49</v>
       </c>
-      <c r="Z18" s="1"/>
+      <c r="Y18" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA18" s="49" t="s">
         <v>152</v>
       </c>
@@ -5124,7 +5207,7 @@
     </row>
     <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
-        <f>COUNTIF(D19,"&lt;&gt;"&amp;"")+COUNTIF(BQ19,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B19" s="27">
@@ -5181,7 +5264,12 @@
       <c r="W19" t="s">
         <v>49</v>
       </c>
-      <c r="Z19" s="1"/>
+      <c r="Y19" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA19" s="49" t="s">
         <v>152</v>
       </c>
@@ -5271,7 +5359,7 @@
     </row>
     <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
-        <f>COUNTIF(D20,"&lt;&gt;"&amp;"")+COUNTIF(BQ20,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B20" s="27">
@@ -5328,7 +5416,12 @@
       <c r="W20" t="s">
         <v>49</v>
       </c>
-      <c r="Z20" s="1"/>
+      <c r="Y20" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA20" s="49" t="s">
         <v>152</v>
       </c>
@@ -5418,7 +5511,7 @@
     </row>
     <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
-        <f>COUNTIF(D21,"&lt;&gt;"&amp;"")+COUNTIF(BQ21,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B21" s="27">
@@ -5475,7 +5568,12 @@
       <c r="W21" t="s">
         <v>49</v>
       </c>
-      <c r="Z21" s="1"/>
+      <c r="Y21" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA21" s="49" t="s">
         <v>152</v>
       </c>
@@ -5565,7 +5663,7 @@
     </row>
     <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
-        <f>COUNTIF(D22,"&lt;&gt;"&amp;"")+COUNTIF(BQ22,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B22" s="27">
@@ -5622,7 +5720,12 @@
       <c r="W22" t="s">
         <v>49</v>
       </c>
-      <c r="Z22" s="1"/>
+      <c r="Y22" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA22" s="49" t="s">
         <v>152</v>
       </c>
@@ -5712,7 +5815,7 @@
     </row>
     <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
-        <f>COUNTIF(D23,"&lt;&gt;"&amp;"")+COUNTIF(BQ23,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B23" s="27">
@@ -5769,7 +5872,12 @@
       <c r="W23" t="s">
         <v>49</v>
       </c>
-      <c r="Z23" s="1"/>
+      <c r="Y23" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA23" s="49" t="s">
         <v>152</v>
       </c>
@@ -5859,7 +5967,7 @@
     </row>
     <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
-        <f>COUNTIF(D24,"&lt;&gt;"&amp;"")+COUNTIF(BQ24,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B24" s="27">
@@ -5916,7 +6024,12 @@
       <c r="W24" t="s">
         <v>49</v>
       </c>
-      <c r="Z24" s="1"/>
+      <c r="Y24" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA24" s="49" t="s">
         <v>152</v>
       </c>
@@ -6006,7 +6119,7 @@
     </row>
     <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
-        <f>COUNTIF(D25,"&lt;&gt;"&amp;"")+COUNTIF(BQ25,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B25" s="27">
@@ -6063,7 +6176,12 @@
       <c r="W25" t="s">
         <v>49</v>
       </c>
-      <c r="Z25" s="1"/>
+      <c r="Y25" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA25" s="49" t="s">
         <v>152</v>
       </c>
@@ -6153,7 +6271,7 @@
     </row>
     <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
-        <f>COUNTIF(D26,"&lt;&gt;"&amp;"")+COUNTIF(BQ26,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B26" s="27">
@@ -6210,7 +6328,12 @@
       <c r="W26" t="s">
         <v>49</v>
       </c>
-      <c r="Z26" s="1"/>
+      <c r="Y26" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA26" s="49" t="s">
         <v>152</v>
       </c>
@@ -6300,7 +6423,7 @@
     </row>
     <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
-        <f>COUNTIF(D27,"&lt;&gt;"&amp;"")+COUNTIF(BQ27,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B27" s="27">
@@ -6357,7 +6480,12 @@
       <c r="W27" t="s">
         <v>49</v>
       </c>
-      <c r="Z27" s="1"/>
+      <c r="Y27" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA27" s="49" t="s">
         <v>152</v>
       </c>
@@ -6447,7 +6575,7 @@
     </row>
     <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
-        <f>COUNTIF(D28,"&lt;&gt;"&amp;"")+COUNTIF(BQ28,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B28" s="27">
@@ -6504,7 +6632,12 @@
       <c r="W28" t="s">
         <v>49</v>
       </c>
-      <c r="Z28" s="1"/>
+      <c r="Y28" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA28" s="49" t="s">
         <v>152</v>
       </c>
@@ -6594,7 +6727,7 @@
     </row>
     <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
-        <f>COUNTIF(D29,"&lt;&gt;"&amp;"")+COUNTIF(BQ29,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B29" s="27">
@@ -6651,7 +6784,12 @@
       <c r="W29" t="s">
         <v>49</v>
       </c>
-      <c r="Z29" s="1"/>
+      <c r="Y29" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA29" s="49" t="s">
         <v>152</v>
       </c>
@@ -6741,7 +6879,7 @@
     </row>
     <row r="30" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
-        <f>COUNTIF(D30,"&lt;&gt;"&amp;"")+COUNTIF(BQ30,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B30" s="27">
@@ -6798,7 +6936,12 @@
       <c r="W30" t="s">
         <v>49</v>
       </c>
-      <c r="Z30" s="1"/>
+      <c r="Y30" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA30" s="49" t="s">
         <v>152</v>
       </c>
@@ -6888,7 +7031,7 @@
     </row>
     <row r="31" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
-        <f>COUNTIF(D31,"&lt;&gt;"&amp;"")+COUNTIF(BQ31,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B31" s="27">
@@ -6945,7 +7088,12 @@
       <c r="W31" t="s">
         <v>49</v>
       </c>
-      <c r="Z31" s="1"/>
+      <c r="Y31" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA31" s="49" t="s">
         <v>152</v>
       </c>
@@ -7035,7 +7183,7 @@
     </row>
     <row r="32" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
-        <f>COUNTIF(D32,"&lt;&gt;"&amp;"")+COUNTIF(BQ32,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B32" s="27">
@@ -7092,7 +7240,12 @@
       <c r="W32" t="s">
         <v>49</v>
       </c>
-      <c r="Z32" s="1"/>
+      <c r="Y32" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA32" s="49" t="s">
         <v>152</v>
       </c>
@@ -7182,7 +7335,7 @@
     </row>
     <row r="33" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
-        <f>COUNTIF(D33,"&lt;&gt;"&amp;"")+COUNTIF(BQ33,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B33" s="27">
@@ -7239,7 +7392,12 @@
       <c r="W33" t="s">
         <v>49</v>
       </c>
-      <c r="Z33" s="1"/>
+      <c r="Y33" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA33" s="49" t="s">
         <v>152</v>
       </c>
@@ -7329,7 +7487,7 @@
     </row>
     <row r="34" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
-        <f>COUNTIF(D34,"&lt;&gt;"&amp;"")+COUNTIF(BQ34,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B34" s="27">
@@ -7386,7 +7544,12 @@
       <c r="W34" t="s">
         <v>49</v>
       </c>
-      <c r="Z34" s="1"/>
+      <c r="Y34" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA34" s="49" t="s">
         <v>152</v>
       </c>
@@ -7476,7 +7639,7 @@
     </row>
     <row r="35" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
-        <f>COUNTIF(D35,"&lt;&gt;"&amp;"")+COUNTIF(BQ35,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B35" s="27">
@@ -7533,7 +7696,12 @@
       <c r="W35" t="s">
         <v>49</v>
       </c>
-      <c r="Z35" s="1"/>
+      <c r="Y35" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA35" s="49" t="s">
         <v>152</v>
       </c>
@@ -7623,7 +7791,7 @@
     </row>
     <row r="36" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
-        <f>COUNTIF(D36,"&lt;&gt;"&amp;"")+COUNTIF(BQ36,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B36" s="27">
@@ -7680,7 +7848,12 @@
       <c r="W36" t="s">
         <v>49</v>
       </c>
-      <c r="Z36" s="1"/>
+      <c r="Y36" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA36" s="49" t="s">
         <v>152</v>
       </c>
@@ -7770,7 +7943,7 @@
     </row>
     <row r="37" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
-        <f>COUNTIF(D37,"&lt;&gt;"&amp;"")+COUNTIF(BQ37,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B37" s="27">
@@ -7830,7 +8003,12 @@
         <v>49</v>
       </c>
       <c r="X37"/>
-      <c r="Y37"/>
+      <c r="Y37" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA37" s="49" t="s">
         <v>152</v>
       </c>
@@ -7920,7 +8098,7 @@
     </row>
     <row r="38" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
-        <f>COUNTIF(D38,"&lt;&gt;"&amp;"")+COUNTIF(BQ38,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B38" s="27">
@@ -7980,7 +8158,12 @@
         <v>49</v>
       </c>
       <c r="X38"/>
-      <c r="Y38"/>
+      <c r="Y38" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AA38" s="49" t="s">
         <v>152</v>
       </c>
@@ -8227,19 +8410,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8257,14 +8430,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
